--- a/Jogos_da_Semana_FlashScore_2025-02-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-06.xlsx
@@ -1310,10 +1310,10 @@
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="T6" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
@@ -1419,39 +1419,39 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="H7" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I7" t="n">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="J7" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="K7" t="n">
         <v>2.12</v>
       </c>
       <c r="L7" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="M7" t="n">
         <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="P7" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="T7" t="n">
         <v>1.65</v>
@@ -1459,16 +1459,16 @@
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="X7" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Y7" t="n">
         <v>1.42</v>
       </c>
       <c r="Z7" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AA7" t="n">
         <v>2.05</v>
@@ -1480,28 +1480,28 @@
         <v>5.7</v>
       </c>
       <c r="AD7" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AE7" t="n">
         <v>8.25</v>
       </c>
       <c r="AF7" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AG7" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH7" t="n">
         <v>32</v>
       </c>
       <c r="AI7" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AJ7" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AK7" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AL7" t="n">
         <v>110</v>
@@ -1510,22 +1510,22 @@
         <v>900</v>
       </c>
       <c r="AN7" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AP7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ7" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AR7" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AS7" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8">
@@ -1701,74 +1701,74 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H9" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I9" t="n">
         <v>8.5</v>
       </c>
       <c r="J9" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K9" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="L9" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="M9" t="n">
         <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P9" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="T9" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="X9" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="Y9" t="n">
         <v>1.44</v>
       </c>
       <c r="Z9" t="n">
-        <v>2.57</v>
+        <v>2.62</v>
       </c>
       <c r="AA9" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AC9" t="n">
         <v>4.9</v>
       </c>
       <c r="AD9" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AE9" t="n">
         <v>8.75</v>
       </c>
       <c r="AF9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG9" t="n">
         <v>14</v>
@@ -1777,13 +1777,13 @@
         <v>40</v>
       </c>
       <c r="AI9" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AJ9" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="AK9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL9" t="n">
         <v>175</v>
@@ -1792,19 +1792,19 @@
         <v>101</v>
       </c>
       <c r="AN9" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AO9" t="n">
         <v>55</v>
       </c>
       <c r="AP9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ9" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AR9" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AS9" t="n">
         <v>120</v>
@@ -2015,22 +2015,22 @@
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="T11" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="U11" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="V11" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="W11" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="X11" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Y11" t="n">
         <v>1.29</v>
@@ -2276,19 +2276,19 @@
         <v>4.75</v>
       </c>
       <c r="H13" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I13" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="J13" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K13" t="n">
         <v>2.2</v>
       </c>
       <c r="L13" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="M13" t="n">
         <v>1.02</v>
@@ -2297,10 +2297,10 @@
         <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P13" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
@@ -2325,10 +2325,10 @@
         <v>3</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AB13" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AC13" t="n">
         <v>13</v>
@@ -2352,10 +2352,10 @@
         <v>11</v>
       </c>
       <c r="AJ13" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AK13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL13" t="n">
         <v>51</v>
@@ -2373,13 +2373,13 @@
         <v>8.5</v>
       </c>
       <c r="AQ13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR13" t="n">
         <v>13</v>
       </c>
       <c r="AS13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
@@ -2565,7 +2565,7 @@
         <v>3.6</v>
       </c>
       <c r="I15" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
         <v>4</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS17"/>
+  <dimension ref="A1:AS18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -841,28 +841,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.45</v>
+        <v>2.63</v>
       </c>
       <c r="H3" t="n">
         <v>2.88</v>
       </c>
       <c r="I3" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="J3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K3" t="n">
         <v>1.83</v>
       </c>
       <c r="L3" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
         <v>1.57</v>
@@ -907,19 +907,19 @@
         <v>1.57</v>
       </c>
       <c r="AC3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AD3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE3" t="n">
         <v>11</v>
       </c>
       <c r="AF3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH3" t="n">
         <v>41</v>
@@ -928,7 +928,7 @@
         <v>5.5</v>
       </c>
       <c r="AJ3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AK3" t="n">
         <v>21</v>
@@ -940,16 +940,16 @@
         <v>101</v>
       </c>
       <c r="AN3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP3" t="n">
         <v>13</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR3" t="n">
         <v>34</v>
@@ -1047,7 +1047,7 @@
         <v>1.73</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AA4" t="n">
         <v>2.38</v>
@@ -1139,13 +1139,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="J5" t="n">
         <v>2.5</v>
@@ -1154,7 +1154,7 @@
         <v>1.83</v>
       </c>
       <c r="L5" t="n">
-        <v>6.1</v>
+        <v>7</v>
       </c>
       <c r="M5" t="n">
         <v>1.15</v>
@@ -1171,10 +1171,10 @@
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="T5" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
@@ -1197,53 +1197,53 @@
         <v>1.42</v>
       </c>
       <c r="AC5" t="n">
-        <v>4.25</v>
+        <v>4.33</v>
       </c>
       <c r="AD5" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF5" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG5" t="n">
         <v>21</v>
       </c>
       <c r="AH5" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="AI5" t="n">
-        <v>4.7</v>
+        <v>5.5</v>
       </c>
       <c r="AJ5" t="n">
-        <v>6.6</v>
+        <v>7.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL5" t="n">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="AM5" t="inlineStr"/>
       <c r="AN5" t="n">
-        <v>9.25</v>
+        <v>8</v>
       </c>
       <c r="AO5" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AP5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ5" t="n">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="AR5" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AS5" t="n">
-        <v>120</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
@@ -1281,25 +1281,25 @@
         <v>2.35</v>
       </c>
       <c r="H6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L6" t="n">
         <v>3.4</v>
       </c>
-      <c r="I6" t="n">
-        <v>3</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3.5</v>
-      </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O6" t="n">
         <v>1.25</v>
@@ -1345,7 +1345,7 @@
         <v>9.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG6" t="n">
         <v>17</v>
@@ -1381,7 +1381,7 @@
         <v>29</v>
       </c>
       <c r="AR6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AS6" t="n">
         <v>29</v>
@@ -1419,39 +1419,39 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="H7" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>5.7</v>
+        <v>5.1</v>
       </c>
       <c r="J7" t="n">
-        <v>2.15</v>
+        <v>2.22</v>
       </c>
       <c r="K7" t="n">
         <v>2.12</v>
       </c>
       <c r="L7" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="M7" t="n">
         <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="O7" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="P7" t="n">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="T7" t="n">
         <v>1.65</v>
@@ -1459,16 +1459,16 @@
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="X7" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="Y7" t="n">
         <v>1.42</v>
       </c>
       <c r="Z7" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="AA7" t="n">
         <v>2.05</v>
@@ -1480,28 +1480,28 @@
         <v>5.7</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AE7" t="n">
         <v>8.25</v>
       </c>
       <c r="AF7" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH7" t="n">
         <v>32</v>
       </c>
       <c r="AI7" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AJ7" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AK7" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AL7" t="n">
         <v>110</v>
@@ -1510,22 +1510,22 @@
         <v>900</v>
       </c>
       <c r="AN7" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AP7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ7" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AR7" t="n">
+        <v>60</v>
+      </c>
+      <c r="AS7" t="n">
         <v>70</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>75</v>
       </c>
     </row>
     <row r="8">
@@ -1701,113 +1701,113 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H9" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
         <v>8.5</v>
       </c>
       <c r="J9" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="K9" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="L9" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="O9" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="P9" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="T9" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="X9" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Z9" t="n">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="AA9" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AC9" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="AE9" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AF9" t="n">
         <v>8.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AI9" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AJ9" t="n">
         <v>8</v>
       </c>
       <c r="AK9" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AL9" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AM9" t="n">
         <v>101</v>
       </c>
       <c r="AN9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO9" t="n">
         <v>55</v>
       </c>
       <c r="AP9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ9" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AR9" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AS9" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
@@ -1842,119 +1842,123 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="H10" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I10" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="K10" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="L10" t="n">
-        <v>4.25</v>
+        <v>4.33</v>
       </c>
       <c r="M10" t="n">
         <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="O10" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P10" t="n">
-        <v>4.35</v>
+        <v>5</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="T10" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
+        <v>2.35</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.9</v>
+      </c>
       <c r="W10" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="X10" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="Y10" t="n">
         <v>1.29</v>
       </c>
       <c r="Z10" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="AB10" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AD10" t="n">
         <v>10</v>
       </c>
       <c r="AE10" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AF10" t="n">
         <v>15</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI10" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AJ10" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AK10" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AL10" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AM10" t="n">
-        <v>250</v>
+        <v>126</v>
       </c>
       <c r="AN10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO10" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AP10" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AQ10" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="AR10" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AS10" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>lMlZ4N84</t>
+          <t>drODCWN0</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1964,142 +1968,138 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>12:05</t>
+          <t>00:10</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Al Qadisiya</t>
+          <t>Pachuca</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Club Leon</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.27</v>
+        <v>1.91</v>
       </c>
       <c r="H11" t="n">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>9</v>
+        <v>4.1</v>
       </c>
       <c r="J11" t="n">
-        <v>1.73</v>
+        <v>2.5</v>
       </c>
       <c r="K11" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L11" t="n">
-        <v>7.5</v>
+        <v>4.33</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="O11" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="P11" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="n">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="T11" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.85</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
       <c r="W11" t="n">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="X11" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="Z11" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="AA11" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>6.5</v>
       </c>
-      <c r="AE11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>11</v>
-      </c>
       <c r="AK11" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AL11" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AM11" t="n">
-        <v>900</v>
+        <v>151</v>
       </c>
       <c r="AN11" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AO11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ11" t="n">
         <v>41</v>
       </c>
-      <c r="AP11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>101</v>
-      </c>
       <c r="AR11" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AS11" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jBUtz39U</t>
+          <t>lMlZ4N84</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2109,7 +2109,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>12:05</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2119,132 +2119,132 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Qadisiya</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.65</v>
+        <v>1.25</v>
       </c>
       <c r="H12" t="n">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="I12" t="n">
-        <v>4.1</v>
+        <v>9.5</v>
       </c>
       <c r="J12" t="n">
-        <v>2.2</v>
+        <v>1.67</v>
       </c>
       <c r="K12" t="n">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="L12" t="n">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="M12" t="n">
         <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P12" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="T12" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="U12" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="V12" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="W12" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="X12" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Z12" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AA12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AB12" t="n">
         <v>1.67</v>
       </c>
-      <c r="AB12" t="n">
-        <v>2.1</v>
-      </c>
       <c r="AC12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD12" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>13</v>
+        <v>7.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH12" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AI12" t="n">
         <v>15</v>
       </c>
       <c r="AJ12" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AK12" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AL12" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AM12" t="n">
-        <v>151</v>
+        <v>900</v>
       </c>
       <c r="AN12" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AO12" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AP12" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AQ12" t="n">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="AR12" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="AS12" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>tzAjf6fn</t>
+          <t>jBUtz39U</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2254,7 +2254,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2264,128 +2264,132 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Al Taawon</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="H13" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I13" t="n">
         <v>4</v>
       </c>
-      <c r="I13" t="n">
-        <v>1.57</v>
-      </c>
       <c r="J13" t="n">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="K13" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L13" t="n">
-        <v>2.1</v>
+        <v>4.33</v>
       </c>
       <c r="M13" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O13" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="P13" t="n">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="n">
-        <v>1.85</v>
+        <v>1.67</v>
       </c>
       <c r="T13" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
+        <v>2.15</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.8</v>
+      </c>
       <c r="W13" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="X13" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="Z13" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="AB13" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="AC13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF13" t="n">
         <v>13</v>
       </c>
-      <c r="AD13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>51</v>
-      </c>
       <c r="AG13" t="n">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="AH13" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AI13" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AJ13" t="n">
         <v>8</v>
       </c>
       <c r="AK13" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AL13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM13" t="n">
-        <v>700</v>
+        <v>151</v>
       </c>
       <c r="AN13" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AO13" t="n">
-        <v>7.5</v>
+        <v>23</v>
       </c>
       <c r="AP13" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AQ13" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="AR13" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AS13" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>0f1ZdN7r</t>
+          <t>tzAjf6fn</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2395,133 +2399,129 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Basel</t>
+          <t>Al Taawon</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Luzern</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.67</v>
+        <v>4.75</v>
       </c>
       <c r="H14" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>4.5</v>
+        <v>1.57</v>
       </c>
       <c r="J14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K14" t="n">
         <v>2.2</v>
       </c>
-      <c r="K14" t="n">
-        <v>2.5</v>
-      </c>
       <c r="L14" t="n">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="M14" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="O14" t="n">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="P14" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="n">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="T14" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V14" t="n">
-        <v>2.03</v>
-      </c>
+        <v>1.95</v>
+      </c>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
       <c r="W14" t="n">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="X14" t="n">
-        <v>1.62</v>
+        <v>1.33</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="Z14" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="AA14" t="n">
-        <v>1.53</v>
+        <v>1.91</v>
       </c>
       <c r="AB14" t="n">
-        <v>2.38</v>
+        <v>1.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AD14" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="AE14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>700</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP14" t="n">
         <v>8.5</v>
       </c>
-      <c r="AF14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK14" t="n">
+      <c r="AQ14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR14" t="n">
         <v>13</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>126</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>29</v>
       </c>
       <c r="AS14" t="n">
         <v>29</v>
@@ -2530,7 +2530,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UXcAbzqm</t>
+          <t>0f1ZdN7r</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2550,95 +2550,99 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Basel</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Luzern</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.7</v>
+        <v>1.62</v>
       </c>
       <c r="H15" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="J15" t="n">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="K15" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L15" t="n">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N15" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="O15" t="n">
-        <v>1.25</v>
+        <v>1.14</v>
       </c>
       <c r="P15" t="n">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U15" t="n">
         <v>1.83</v>
       </c>
-      <c r="T15" t="n">
+      <c r="V15" t="n">
         <v>2.03</v>
       </c>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
       <c r="W15" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="X15" t="n">
-        <v>1.36</v>
+        <v>1.67</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="Z15" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="AA15" t="n">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="AB15" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="AC15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG15" t="n">
         <v>12</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AH15" t="n">
         <v>19</v>
       </c>
-      <c r="AE15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>34</v>
-      </c>
       <c r="AI15" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AJ15" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AK15" t="n">
         <v>13</v>
@@ -2647,31 +2651,31 @@
         <v>41</v>
       </c>
       <c r="AM15" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AN15" t="n">
-        <v>8.5</v>
+        <v>17</v>
       </c>
       <c r="AO15" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="AP15" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AQ15" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AR15" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AS15" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>OzmhOgMN</t>
+          <t>UXcAbzqm</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2681,129 +2685,129 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Ittihad Kalba</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Al Sharjah</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>6.1</v>
+        <v>3.7</v>
       </c>
       <c r="H16" t="n">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="I16" t="n">
-        <v>1.45</v>
+        <v>1.96</v>
       </c>
       <c r="J16" t="n">
-        <v>5.7</v>
+        <v>4</v>
       </c>
       <c r="K16" t="n">
-        <v>2.42</v>
+        <v>2.2</v>
       </c>
       <c r="L16" t="n">
-        <v>1.93</v>
+        <v>2.6</v>
       </c>
       <c r="M16" t="n">
         <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>8.75</v>
+        <v>12</v>
       </c>
       <c r="O16" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="P16" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="T16" t="n">
-        <v>2.2</v>
+        <v>2.03</v>
       </c>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="n">
-        <v>2.42</v>
+        <v>3</v>
       </c>
       <c r="X16" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="Z16" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="AA16" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AB16" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="AC16" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AD16" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="AE16" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AF16" t="n">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="AG16" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="AH16" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="AI16" t="n">
-        <v>8.75</v>
+        <v>12</v>
       </c>
       <c r="AJ16" t="n">
-        <v>8.75</v>
+        <v>7</v>
       </c>
       <c r="AK16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>151</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AQ16" t="n">
         <v>17</v>
       </c>
-      <c r="AL16" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>500</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>10.25</v>
-      </c>
       <c r="AR16" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AS16" t="n">
         <v>23</v>
@@ -2812,7 +2816,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Im1i67gT</t>
+          <t>OzmhOgMN</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2822,63 +2826,270 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
+          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Estudiantes Merida</t>
+          <t>Ittihad Kalba</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Monagas</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
+          <t>Al Sharjah</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="J17" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N17" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4.1</v>
+      </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
+      <c r="S17" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.2</v>
+      </c>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="inlineStr"/>
-      <c r="AC17" t="inlineStr"/>
-      <c r="AD17" t="inlineStr"/>
-      <c r="AE17" t="inlineStr"/>
-      <c r="AF17" t="inlineStr"/>
-      <c r="AG17" t="inlineStr"/>
-      <c r="AH17" t="inlineStr"/>
-      <c r="AI17" t="inlineStr"/>
-      <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr"/>
-      <c r="AL17" t="inlineStr"/>
-      <c r="AM17" t="inlineStr"/>
-      <c r="AN17" t="inlineStr"/>
-      <c r="AO17" t="inlineStr"/>
-      <c r="AP17" t="inlineStr"/>
-      <c r="AQ17" t="inlineStr"/>
-      <c r="AR17" t="inlineStr"/>
-      <c r="AS17" t="inlineStr"/>
+      <c r="W17" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>120</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>60</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>500</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Im1i67gT</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>06/02/2025</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>VENEZUELA - LIGA FUTVE</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Estudiantes Merida</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Monagas</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L18" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="X18" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>90</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>800</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>55</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>37</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-06.xlsx
@@ -841,16 +841,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H3" t="n">
         <v>2.88</v>
       </c>
       <c r="I3" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K3" t="n">
         <v>1.83</v>
@@ -865,10 +865,10 @@
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q3" t="n">
         <v>2.03</v>
@@ -883,16 +883,16 @@
         <v>1.4</v>
       </c>
       <c r="U3" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X3" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="Y3" t="n">
         <v>1.67</v>
@@ -910,7 +910,7 @@
         <v>6</v>
       </c>
       <c r="AD3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE3" t="n">
         <v>11</v>
@@ -919,7 +919,7 @@
         <v>26</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AH3" t="n">
         <v>41</v>
@@ -940,7 +940,7 @@
         <v>101</v>
       </c>
       <c r="AN3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AO3" t="n">
         <v>13</v>
@@ -1278,28 +1278,28 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H6" t="n">
         <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
         <v>2.88</v>
       </c>
       <c r="K6" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O6" t="n">
         <v>1.25</v>
@@ -1330,22 +1330,22 @@
         <v>3</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AB6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD6" t="n">
         <v>12</v>
       </c>
       <c r="AE6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG6" t="n">
         <v>17</v>
@@ -1357,10 +1357,10 @@
         <v>12</v>
       </c>
       <c r="AJ6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AK6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL6" t="n">
         <v>41</v>
@@ -1372,7 +1372,7 @@
         <v>11</v>
       </c>
       <c r="AO6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP6" t="n">
         <v>11</v>
@@ -1381,7 +1381,7 @@
         <v>29</v>
       </c>
       <c r="AR6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AS6" t="n">
         <v>29</v>
@@ -1704,10 +1704,10 @@
         <v>1.4</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I9" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="J9" t="n">
         <v>1.9</v>
@@ -1716,7 +1716,7 @@
         <v>2.22</v>
       </c>
       <c r="L9" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="M9" t="n">
         <v>1.07</v>
@@ -1744,7 +1744,7 @@
         <v>3.4</v>
       </c>
       <c r="X9" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="Y9" t="n">
         <v>1.4</v>
@@ -1753,25 +1753,25 @@
         <v>2.72</v>
       </c>
       <c r="AA9" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="AC9" t="n">
         <v>5.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AE9" t="n">
         <v>8.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AG9" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH9" t="n">
         <v>37</v>
@@ -1792,7 +1792,7 @@
         <v>101</v>
       </c>
       <c r="AN9" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AO9" t="n">
         <v>55</v>
@@ -1842,16 +1842,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H10" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J10" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K10" t="n">
         <v>2.4</v>
@@ -1925,7 +1925,7 @@
         <v>17</v>
       </c>
       <c r="AJ10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AK10" t="n">
         <v>13</v>
@@ -1937,13 +1937,13 @@
         <v>126</v>
       </c>
       <c r="AN10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO10" t="n">
         <v>23</v>
       </c>
       <c r="AP10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ10" t="n">
         <v>41</v>
@@ -1987,13 +1987,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H11" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J11" t="n">
         <v>2.5</v>
@@ -2005,21 +2005,21 @@
         <v>4.33</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O11" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P11" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -2027,10 +2027,10 @@
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="X11" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Y11" t="n">
         <v>1.36</v>
@@ -2039,16 +2039,16 @@
         <v>3</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AB11" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD11" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE11" t="n">
         <v>8.5</v>
@@ -2063,7 +2063,7 @@
         <v>23</v>
       </c>
       <c r="AI11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ11" t="n">
         <v>6.5</v>
@@ -2090,7 +2090,7 @@
         <v>41</v>
       </c>
       <c r="AR11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AS11" t="n">
         <v>34</v>
@@ -2128,10 +2128,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="H12" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="I12" t="n">
         <v>9.5</v>
@@ -2143,7 +2143,7 @@
         <v>2.6</v>
       </c>
       <c r="L12" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="M12" t="n">
         <v>1.03</v>
@@ -2166,10 +2166,10 @@
         <v>2.35</v>
       </c>
       <c r="U12" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="V12" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="W12" t="n">
         <v>2.38</v>
@@ -2196,13 +2196,13 @@
         <v>6.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF12" t="n">
         <v>7.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH12" t="n">
         <v>29</v>
@@ -2211,10 +2211,10 @@
         <v>15</v>
       </c>
       <c r="AJ12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL12" t="n">
         <v>67</v>
@@ -2229,7 +2229,7 @@
         <v>51</v>
       </c>
       <c r="AP12" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ12" t="n">
         <v>126</v>
@@ -2273,13 +2273,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H13" t="n">
         <v>4.1</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J13" t="n">
         <v>2.2</v>
@@ -2288,7 +2288,7 @@
         <v>2.3</v>
       </c>
       <c r="L13" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M13" t="n">
         <v>1.03</v>
@@ -2305,10 +2305,10 @@
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="T13" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="U13" t="n">
         <v>2</v>
@@ -2323,19 +2323,19 @@
         <v>1.44</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Z13" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AB13" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AC13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD13" t="n">
         <v>9</v>
@@ -2350,7 +2350,7 @@
         <v>13</v>
       </c>
       <c r="AH13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI13" t="n">
         <v>15</v>
@@ -2374,13 +2374,13 @@
         <v>23</v>
       </c>
       <c r="AP13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ13" t="n">
         <v>41</v>
       </c>
       <c r="AR13" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AS13" t="n">
         <v>34</v>
@@ -2436,16 +2436,16 @@
         <v>2.1</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N14" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P14" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
@@ -2559,7 +2559,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H15" t="n">
         <v>4.2</v>
@@ -2591,7 +2591,7 @@
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="T15" t="n">
         <v>2.6</v>
@@ -2710,7 +2710,7 @@
         <v>3.6</v>
       </c>
       <c r="I16" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
         <v>4</v>
@@ -2845,89 +2845,89 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>6.1</v>
+        <v>5.7</v>
       </c>
       <c r="H17" t="n">
-        <v>4.4</v>
+        <v>4.25</v>
       </c>
       <c r="I17" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="J17" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="K17" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="L17" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="M17" t="n">
         <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="O17" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P17" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="T17" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="n">
-        <v>2.42</v>
+        <v>2.55</v>
       </c>
       <c r="X17" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="Z17" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="AA17" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="AB17" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="AC17" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>37</v>
+      </c>
+      <c r="AE17" t="n">
         <v>18</v>
       </c>
-      <c r="AD17" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>19</v>
-      </c>
       <c r="AF17" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AG17" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AH17" t="n">
         <v>50</v>
       </c>
       <c r="AI17" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AJ17" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AK17" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AL17" t="n">
         <v>70</v>
@@ -2936,19 +2936,19 @@
         <v>500</v>
       </c>
       <c r="AN17" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AP17" t="n">
         <v>8</v>
       </c>
-      <c r="AO17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>8.25</v>
-      </c>
       <c r="AQ17" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AR17" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AS17" t="n">
         <v>23</v>
@@ -2986,85 +2986,85 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.85</v>
+        <v>2.07</v>
       </c>
       <c r="H18" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="I18" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L18" t="n">
         <v>3.8</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="L18" t="n">
-        <v>4.25</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="P18" t="n">
-        <v>2.77</v>
+        <v>2.67</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="T18" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="X18" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Z18" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="AB18" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="AC18" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>35</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>6.4</v>
       </c>
-      <c r="AD18" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>6.7</v>
-      </c>
       <c r="AK18" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AL18" t="n">
         <v>90</v>
@@ -3073,22 +3073,22 @@
         <v>800</v>
       </c>
       <c r="AN18" t="n">
-        <v>10</v>
+        <v>8.75</v>
       </c>
       <c r="AO18" t="n">
-        <v>19.5</v>
+        <v>16</v>
       </c>
       <c r="AP18" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AQ18" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AR18" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AS18" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-02-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-06.xlsx
@@ -841,13 +841,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H3" t="n">
         <v>2.88</v>
       </c>
       <c r="I3" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J3" t="n">
         <v>3.4</v>
@@ -895,7 +895,7 @@
         <v>1.11</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="Z3" t="n">
         <v>2.1</v>
@@ -907,7 +907,7 @@
         <v>1.57</v>
       </c>
       <c r="AC3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AD3" t="n">
         <v>10</v>
@@ -916,7 +916,7 @@
         <v>11</v>
       </c>
       <c r="AF3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG3" t="n">
         <v>26</v>
@@ -928,7 +928,7 @@
         <v>5.5</v>
       </c>
       <c r="AJ3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AK3" t="n">
         <v>21</v>
@@ -943,7 +943,7 @@
         <v>7</v>
       </c>
       <c r="AO3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP3" t="n">
         <v>13</v>
@@ -1044,7 +1044,7 @@
         <v>1.1</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="Z4" t="n">
         <v>2</v>
@@ -1171,10 +1171,10 @@
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="T5" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
@@ -1185,10 +1185,10 @@
         <v>1.11</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="AA5" t="n">
         <v>2.65</v>
@@ -1278,28 +1278,28 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I6" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J6" t="n">
         <v>3</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.88</v>
       </c>
       <c r="K6" t="n">
         <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O6" t="n">
         <v>1.25</v>
@@ -1310,10 +1310,10 @@
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T6" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
@@ -1324,7 +1324,7 @@
         <v>1.4</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Z6" t="n">
         <v>3</v>
@@ -1336,28 +1336,28 @@
         <v>2.1</v>
       </c>
       <c r="AC6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI6" t="n">
         <v>12</v>
       </c>
       <c r="AJ6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AK6" t="n">
         <v>13</v>
@@ -1369,7 +1369,7 @@
         <v>151</v>
       </c>
       <c r="AN6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO6" t="n">
         <v>15</v>
@@ -1381,7 +1381,7 @@
         <v>29</v>
       </c>
       <c r="AR6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AS6" t="n">
         <v>29</v>
@@ -1419,47 +1419,47 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="H7" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I7" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="J7" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="K7" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="L7" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="O7" t="n">
         <v>1.39</v>
       </c>
       <c r="P7" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="T7" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="X7" t="n">
         <v>1.24</v>
@@ -1471,22 +1471,22 @@
         <v>2.65</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="AC7" t="n">
         <v>5.7</v>
       </c>
       <c r="AD7" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AE7" t="n">
         <v>8.25</v>
       </c>
       <c r="AF7" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG7" t="n">
         <v>15</v>
@@ -1495,16 +1495,16 @@
         <v>32</v>
       </c>
       <c r="AI7" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AJ7" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AK7" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AM7" t="n">
         <v>900</v>
@@ -1513,16 +1513,16 @@
         <v>11.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AP7" t="n">
         <v>17</v>
       </c>
       <c r="AQ7" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AR7" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AS7" t="n">
         <v>70</v>
@@ -1707,22 +1707,22 @@
         <v>3.95</v>
       </c>
       <c r="I9" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="J9" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="K9" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="L9" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="M9" t="n">
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="O9" t="n">
         <v>1.34</v>
@@ -1733,7 +1733,7 @@
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="T9" t="n">
         <v>1.72</v>
@@ -1744,31 +1744,31 @@
         <v>3.4</v>
       </c>
       <c r="X9" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="Y9" t="n">
         <v>1.4</v>
       </c>
       <c r="Z9" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="AA9" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="AC9" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="AE9" t="n">
         <v>8.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AG9" t="n">
         <v>13</v>
@@ -1777,7 +1777,7 @@
         <v>37</v>
       </c>
       <c r="AI9" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AJ9" t="n">
         <v>8</v>
@@ -1792,16 +1792,16 @@
         <v>101</v>
       </c>
       <c r="AN9" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AO9" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AP9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ9" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AR9" t="n">
         <v>120</v>
@@ -1892,13 +1892,13 @@
         <v>1.53</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Z10" t="n">
         <v>3.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="AB10" t="n">
         <v>2.25</v>
@@ -1987,28 +1987,28 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H11" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="J11" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K11" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L11" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O11" t="n">
         <v>1.25</v>
@@ -2019,10 +2019,10 @@
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="T11" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
@@ -2048,7 +2048,7 @@
         <v>8</v>
       </c>
       <c r="AD11" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE11" t="n">
         <v>8.5</v>
@@ -2075,13 +2075,13 @@
         <v>41</v>
       </c>
       <c r="AM11" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AN11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP11" t="n">
         <v>13</v>
@@ -2090,7 +2090,7 @@
         <v>41</v>
       </c>
       <c r="AR11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AS11" t="n">
         <v>34</v>
@@ -2131,57 +2131,57 @@
         <v>1.22</v>
       </c>
       <c r="H12" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="I12" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="J12" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="K12" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L12" t="n">
         <v>8.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="O12" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P12" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="T12" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="U12" t="n">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="V12" t="n">
-        <v>1.9</v>
+        <v>2.03</v>
       </c>
       <c r="W12" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="X12" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Z12" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AA12" t="n">
         <v>2.1</v>
@@ -2190,31 +2190,31 @@
         <v>1.67</v>
       </c>
       <c r="AC12" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD12" t="n">
         <v>6.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF12" t="n">
         <v>7.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH12" t="n">
         <v>29</v>
       </c>
       <c r="AI12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ12" t="n">
         <v>12</v>
       </c>
       <c r="AK12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL12" t="n">
         <v>67</v>
@@ -2223,13 +2223,13 @@
         <v>900</v>
       </c>
       <c r="AN12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO12" t="n">
         <v>51</v>
       </c>
       <c r="AP12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ12" t="n">
         <v>126</v>
@@ -2273,10 +2273,10 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H13" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I13" t="n">
         <v>4.1</v>
@@ -2285,60 +2285,60 @@
         <v>2.2</v>
       </c>
       <c r="K13" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L13" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M13" t="n">
         <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P13" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="T13" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="W13" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AB13" t="n">
         <v>2.2</v>
       </c>
-      <c r="U13" t="n">
-        <v>2</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W13" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="X13" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>2</v>
-      </c>
       <c r="AC13" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE13" t="n">
         <v>8.5</v>
@@ -2350,13 +2350,13 @@
         <v>13</v>
       </c>
       <c r="AH13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ13" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AK13" t="n">
         <v>15</v>
@@ -2368,10 +2368,10 @@
         <v>151</v>
       </c>
       <c r="AN13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP13" t="n">
         <v>15</v>
@@ -2380,7 +2380,7 @@
         <v>41</v>
       </c>
       <c r="AR13" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AS13" t="n">
         <v>34</v>
@@ -2436,32 +2436,32 @@
         <v>2.1</v>
       </c>
       <c r="M14" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O14" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P14" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="T14" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="X14" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Y14" t="n">
         <v>1.36</v>
@@ -2559,10 +2559,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H15" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I15" t="n">
         <v>4.5</v>
@@ -2615,13 +2615,13 @@
         <v>3.75</v>
       </c>
       <c r="AA15" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD15" t="n">
         <v>10</v>
@@ -2630,7 +2630,7 @@
         <v>8.5</v>
       </c>
       <c r="AF15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG15" t="n">
         <v>12</v>
@@ -2642,7 +2642,7 @@
         <v>19</v>
       </c>
       <c r="AJ15" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK15" t="n">
         <v>13</v>
@@ -2651,13 +2651,13 @@
         <v>41</v>
       </c>
       <c r="AM15" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AN15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP15" t="n">
         <v>15</v>
@@ -2666,7 +2666,7 @@
         <v>51</v>
       </c>
       <c r="AR15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AS15" t="n">
         <v>29</v>
@@ -2725,7 +2725,7 @@
         <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
         <v>1.25</v>
@@ -2986,52 +2986,52 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="H18" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I18" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="J18" t="n">
-        <v>2.65</v>
+        <v>2.57</v>
       </c>
       <c r="K18" t="n">
         <v>2.07</v>
       </c>
       <c r="L18" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P18" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="T18" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="X18" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="Z18" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="AA18" t="n">
         <v>1.87</v>
@@ -3040,31 +3040,31 @@
         <v>1.75</v>
       </c>
       <c r="AC18" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AE18" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AF18" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AG18" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AI18" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AJ18" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AK18" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AL18" t="n">
         <v>90</v>
@@ -3073,19 +3073,19 @@
         <v>800</v>
       </c>
       <c r="AN18" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AO18" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AP18" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AQ18" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AR18" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AS18" t="n">
         <v>45</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-06.xlsx
@@ -859,16 +859,16 @@
         <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="P3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q3" t="n">
         <v>2.03</v>
@@ -889,13 +889,13 @@
         <v>1.17</v>
       </c>
       <c r="W3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X3" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="Z3" t="n">
         <v>2.1</v>
@@ -1008,13 +1008,13 @@
         <v>4.33</v>
       </c>
       <c r="M4" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
         <v>5.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="P4" t="n">
         <v>2.1</v>
@@ -1041,10 +1041,10 @@
         <v>7</v>
       </c>
       <c r="X4" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="Z4" t="n">
         <v>2</v>
@@ -1157,16 +1157,16 @@
         <v>7</v>
       </c>
       <c r="M5" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="N5" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="P5" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
@@ -1179,22 +1179,22 @@
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="X5" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="AA5" t="n">
-        <v>2.65</v>
+        <v>2.77</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="AC5" t="n">
         <v>4.33</v>
@@ -1278,31 +1278,31 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H6" t="n">
         <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K6" t="n">
         <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O6" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P6" t="n">
         <v>4</v>
@@ -1310,21 +1310,21 @@
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="T6" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="X6" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Z6" t="n">
         <v>3</v>
@@ -1375,7 +1375,7 @@
         <v>15</v>
       </c>
       <c r="AP6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ6" t="n">
         <v>29</v>
@@ -1384,7 +1384,7 @@
         <v>21</v>
       </c>
       <c r="AS6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
@@ -1419,47 +1419,47 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="H7" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="J7" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K7" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L7" t="n">
         <v>5.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P7" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="T7" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="X7" t="n">
         <v>1.24</v>
@@ -1471,22 +1471,22 @@
         <v>2.65</v>
       </c>
       <c r="AA7" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="AC7" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>7.3</v>
+        <v>6.8</v>
       </c>
       <c r="AE7" t="n">
         <v>8.25</v>
       </c>
       <c r="AF7" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AG7" t="n">
         <v>15</v>
@@ -1495,13 +1495,13 @@
         <v>32</v>
       </c>
       <c r="AI7" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AJ7" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AK7" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AL7" t="n">
         <v>100</v>
@@ -1510,22 +1510,22 @@
         <v>900</v>
       </c>
       <c r="AN7" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AO7" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AP7" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AQ7" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AR7" t="n">
         <v>65</v>
       </c>
       <c r="AS7" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
@@ -1701,62 +1701,62 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="H9" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
         <v>9</v>
       </c>
       <c r="J9" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="K9" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L9" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="M9" t="n">
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="O9" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P9" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="T9" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="X9" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Z9" t="n">
-        <v>2.7</v>
+        <v>2.77</v>
       </c>
       <c r="AA9" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="AC9" t="n">
         <v>5.2</v>
@@ -1848,7 +1848,7 @@
         <v>3.7</v>
       </c>
       <c r="I10" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J10" t="n">
         <v>2.38</v>
@@ -1857,16 +1857,16 @@
         <v>2.4</v>
       </c>
       <c r="L10" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N10" t="n">
         <v>17</v>
       </c>
       <c r="O10" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -1886,34 +1886,34 @@
         <v>1.9</v>
       </c>
       <c r="W10" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="X10" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Z10" t="n">
         <v>3.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="AB10" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AC10" t="n">
         <v>10</v>
       </c>
       <c r="AD10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE10" t="n">
         <v>8.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG10" t="n">
         <v>13</v>
@@ -1925,7 +1925,7 @@
         <v>17</v>
       </c>
       <c r="AJ10" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AK10" t="n">
         <v>13</v>
@@ -1987,16 +1987,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="H11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I11" t="n">
         <v>3.5</v>
       </c>
-      <c r="I11" t="n">
-        <v>3.75</v>
-      </c>
       <c r="J11" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="K11" t="n">
         <v>2.2</v>
@@ -2005,13 +2005,13 @@
         <v>4</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O11" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P11" t="n">
         <v>3.75</v>
@@ -2019,10 +2019,10 @@
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="T11" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
@@ -2030,7 +2030,7 @@
         <v>3</v>
       </c>
       <c r="X11" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Y11" t="n">
         <v>1.36</v>
@@ -2045,19 +2045,19 @@
         <v>2.05</v>
       </c>
       <c r="AC11" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD11" t="n">
         <v>10</v>
       </c>
       <c r="AE11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG11" t="n">
         <v>17</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>15</v>
       </c>
       <c r="AH11" t="n">
         <v>23</v>
@@ -2075,7 +2075,7 @@
         <v>41</v>
       </c>
       <c r="AM11" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AN11" t="n">
         <v>12</v>
@@ -2084,13 +2084,13 @@
         <v>19</v>
       </c>
       <c r="AP11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ11" t="n">
         <v>41</v>
       </c>
       <c r="AR11" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AS11" t="n">
         <v>34</v>
@@ -2146,13 +2146,13 @@
         <v>8.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.01</v>
+        <v>17</v>
       </c>
       <c r="N12" t="n">
-        <v>17</v>
+        <v>1.03</v>
       </c>
       <c r="O12" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -2175,7 +2175,7 @@
         <v>2.2</v>
       </c>
       <c r="X12" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="Y12" t="n">
         <v>1.25</v>
@@ -2291,13 +2291,13 @@
         <v>4.33</v>
       </c>
       <c r="M13" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N13" t="n">
         <v>10.5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="P13" t="n">
         <v>4.5</v>
@@ -2317,10 +2317,10 @@
         <v>1.9</v>
       </c>
       <c r="W13" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="X13" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Y13" t="n">
         <v>1.29</v>
@@ -2436,13 +2436,13 @@
         <v>2.1</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
         <v>9</v>
       </c>
       <c r="O14" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P14" t="n">
         <v>3.75</v>
@@ -2461,7 +2461,7 @@
         <v>3</v>
       </c>
       <c r="X14" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Y14" t="n">
         <v>1.36</v>
@@ -2577,13 +2577,13 @@
         <v>4.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N15" t="n">
         <v>19</v>
       </c>
       <c r="O15" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="P15" t="n">
         <v>5.5</v>
@@ -2606,7 +2606,7 @@
         <v>2.1</v>
       </c>
       <c r="X15" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="Y15" t="n">
         <v>1.25</v>
@@ -2630,7 +2630,7 @@
         <v>8.5</v>
       </c>
       <c r="AF15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG15" t="n">
         <v>12</v>
@@ -2642,13 +2642,13 @@
         <v>19</v>
       </c>
       <c r="AJ15" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK15" t="n">
         <v>13</v>
       </c>
       <c r="AL15" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM15" t="n">
         <v>101</v>
@@ -2666,7 +2666,7 @@
         <v>51</v>
       </c>
       <c r="AR15" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AS15" t="n">
         <v>29</v>
@@ -2722,13 +2722,13 @@
         <v>2.6</v>
       </c>
       <c r="M16" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N16" t="n">
         <v>13</v>
       </c>
       <c r="O16" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P16" t="n">
         <v>3.75</v>
@@ -2747,7 +2747,7 @@
         <v>3</v>
       </c>
       <c r="X16" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Y16" t="n">
         <v>1.36</v>
@@ -2845,22 +2845,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="H17" t="n">
-        <v>4.25</v>
+        <v>4.15</v>
       </c>
       <c r="I17" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="J17" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="K17" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="L17" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="M17" t="n">
         <v>1.04</v>
@@ -2869,10 +2869,10 @@
         <v>8.5</v>
       </c>
       <c r="O17" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P17" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
@@ -2880,27 +2880,27 @@
         <v>1.65</v>
       </c>
       <c r="T17" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="X17" t="n">
         <v>1.45</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="Z17" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="AA17" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="AB17" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="AC17" t="n">
         <v>17.5</v>
@@ -2986,109 +2986,109 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.98</v>
+        <v>2.15</v>
       </c>
       <c r="H18" t="n">
         <v>3.35</v>
       </c>
       <c r="I18" t="n">
-        <v>3.45</v>
+        <v>3.1</v>
       </c>
       <c r="J18" t="n">
-        <v>2.57</v>
+        <v>2.72</v>
       </c>
       <c r="K18" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="P18" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="T18" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="X18" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="Z18" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="AA18" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="AB18" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AC18" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD18" t="n">
-        <v>8.75</v>
+        <v>9.75</v>
       </c>
       <c r="AE18" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AF18" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AH18" t="n">
         <v>32</v>
       </c>
       <c r="AI18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ18" t="n">
         <v>6.5</v>
       </c>
       <c r="AK18" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AM18" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AN18" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AO18" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AP18" t="n">
-        <v>12.5</v>
+        <v>11.25</v>
       </c>
       <c r="AQ18" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="AR18" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="AS18" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-02-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-06.xlsx
@@ -859,16 +859,16 @@
         <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N3" t="n">
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="P3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q3" t="n">
         <v>2.03</v>
@@ -889,10 +889,10 @@
         <v>1.17</v>
       </c>
       <c r="W3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X3" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="Y3" t="n">
         <v>1.67</v>
@@ -1008,13 +1008,13 @@
         <v>4.33</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N4" t="n">
         <v>5.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="P4" t="n">
         <v>2.1</v>
@@ -1041,13 +1041,13 @@
         <v>7</v>
       </c>
       <c r="X4" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="Y4" t="n">
         <v>1.73</v>
       </c>
       <c r="Z4" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AA4" t="n">
         <v>2.38</v>
@@ -1139,50 +1139,50 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="K5" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M5" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="N5" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="P5" t="n">
-        <v>2.02</v>
+        <v>2.15</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="T5" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="X5" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="Y5" t="n">
         <v>1.75</v>
@@ -1191,22 +1191,22 @@
         <v>2.05</v>
       </c>
       <c r="AA5" t="n">
-        <v>2.77</v>
+        <v>2.87</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AC5" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AD5" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AE5" t="n">
         <v>11</v>
       </c>
       <c r="AF5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AG5" t="n">
         <v>21</v>
@@ -1218,32 +1218,32 @@
         <v>5.5</v>
       </c>
       <c r="AJ5" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL5" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AM5" t="inlineStr"/>
       <c r="AN5" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AO5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP5" t="n">
         <v>23</v>
       </c>
-      <c r="AP5" t="n">
-        <v>19</v>
-      </c>
       <c r="AQ5" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AR5" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS5" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6">
@@ -1425,10 +1425,10 @@
         <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="K7" t="n">
         <v>2.1</v>
@@ -1440,29 +1440,29 @@
         <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="P7" t="n">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="T7" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="X7" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="Y7" t="n">
         <v>1.42</v>
@@ -1471,61 +1471,61 @@
         <v>2.65</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AC7" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AE7" t="n">
         <v>8.25</v>
       </c>
       <c r="AF7" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI7" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AJ7" t="n">
         <v>6.6</v>
       </c>
       <c r="AK7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL7" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AM7" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AN7" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AO7" t="n">
         <v>32</v>
       </c>
       <c r="AP7" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AQ7" t="n">
         <v>120</v>
       </c>
       <c r="AR7" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AS7" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -1701,65 +1701,65 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="I9" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="J9" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="K9" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="L9" t="n">
-        <v>7.7</v>
+        <v>8.25</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P9" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="T9" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="X9" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="Z9" t="n">
-        <v>2.77</v>
+        <v>2.67</v>
       </c>
       <c r="AA9" t="n">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="AC9" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AD9" t="n">
         <v>5.5</v>
@@ -1768,22 +1768,22 @@
         <v>8.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH9" t="n">
         <v>37</v>
       </c>
       <c r="AI9" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AJ9" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AK9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL9" t="n">
         <v>150</v>
@@ -1792,22 +1792,22 @@
         <v>101</v>
       </c>
       <c r="AN9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO9" t="n">
         <v>65</v>
       </c>
       <c r="AP9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AQ9" t="n">
         <v>300</v>
       </c>
       <c r="AR9" t="n">
+        <v>150</v>
+      </c>
+      <c r="AS9" t="n">
         <v>120</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>110</v>
       </c>
     </row>
     <row r="10">
@@ -1842,31 +1842,31 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="H10" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I10" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="J10" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="K10" t="n">
         <v>2.4</v>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M10" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
         <v>17</v>
       </c>
       <c r="O10" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -1886,10 +1886,10 @@
         <v>1.9</v>
       </c>
       <c r="W10" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="X10" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Y10" t="n">
         <v>1.29</v>
@@ -1898,25 +1898,25 @@
         <v>3.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH10" t="n">
         <v>21</v>
@@ -1925,34 +1925,34 @@
         <v>17</v>
       </c>
       <c r="AJ10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM10" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AN10" t="n">
         <v>15</v>
       </c>
       <c r="AO10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ10" t="n">
         <v>41</v>
       </c>
       <c r="AR10" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AS10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11">
@@ -2140,19 +2140,19 @@
         <v>1.62</v>
       </c>
       <c r="K12" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L12" t="n">
         <v>8.5</v>
       </c>
       <c r="M12" t="n">
-        <v>17</v>
+        <v>1.02</v>
       </c>
       <c r="N12" t="n">
-        <v>1.03</v>
+        <v>11</v>
       </c>
       <c r="O12" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -2175,7 +2175,7 @@
         <v>2.2</v>
       </c>
       <c r="X12" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="Y12" t="n">
         <v>1.25</v>
@@ -2184,19 +2184,19 @@
         <v>3.75</v>
       </c>
       <c r="AA12" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD12" t="n">
         <v>6.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF12" t="n">
         <v>7.5</v>
@@ -2220,7 +2220,7 @@
         <v>67</v>
       </c>
       <c r="AM12" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
         <v>26</v>
@@ -2291,13 +2291,13 @@
         <v>4.33</v>
       </c>
       <c r="M13" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
         <v>10.5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="P13" t="n">
         <v>4.5</v>
@@ -2317,10 +2317,10 @@
         <v>1.9</v>
       </c>
       <c r="W13" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="X13" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Y13" t="n">
         <v>1.29</v>
@@ -2436,13 +2436,13 @@
         <v>2.1</v>
       </c>
       <c r="M14" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
         <v>9</v>
       </c>
       <c r="O14" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P14" t="n">
         <v>3.75</v>
@@ -2461,7 +2461,7 @@
         <v>3</v>
       </c>
       <c r="X14" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Y14" t="n">
         <v>1.36</v>
@@ -2559,105 +2559,105 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H15" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="I15" t="n">
         <v>4.5</v>
       </c>
       <c r="J15" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K15" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="L15" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M15" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="O15" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="P15" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="n">
-        <v>1.48</v>
+        <v>1.65</v>
       </c>
       <c r="T15" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="U15" t="n">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="V15" t="n">
-        <v>2.03</v>
+        <v>1.8</v>
       </c>
       <c r="W15" t="n">
-        <v>2.1</v>
+        <v>2.63</v>
       </c>
       <c r="X15" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="Z15" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="AA15" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AB15" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AC15" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AD15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE15" t="n">
         <v>8.5</v>
       </c>
       <c r="AF15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI15" t="n">
         <v>15</v>
       </c>
-      <c r="AG15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>19</v>
-      </c>
       <c r="AJ15" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AK15" t="n">
         <v>13</v>
       </c>
       <c r="AL15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM15" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AN15" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AO15" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP15" t="n">
         <v>15</v>
@@ -2666,10 +2666,10 @@
         <v>51</v>
       </c>
       <c r="AR15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AS15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16">
@@ -2704,13 +2704,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H16" t="n">
         <v>3.6</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J16" t="n">
         <v>4</v>
@@ -2722,13 +2722,13 @@
         <v>2.6</v>
       </c>
       <c r="M16" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O16" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P16" t="n">
         <v>3.75</v>
@@ -2736,10 +2736,10 @@
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="T16" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
@@ -2747,7 +2747,7 @@
         <v>3</v>
       </c>
       <c r="X16" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Y16" t="n">
         <v>1.36</v>
@@ -2845,22 +2845,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="H17" t="n">
-        <v>4.15</v>
+        <v>4.25</v>
       </c>
       <c r="I17" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="J17" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="K17" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="L17" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="M17" t="n">
         <v>1.04</v>
@@ -2869,10 +2869,10 @@
         <v>8.5</v>
       </c>
       <c r="O17" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P17" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
@@ -2880,12 +2880,12 @@
         <v>1.65</v>
       </c>
       <c r="T17" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="X17" t="n">
         <v>1.45</v>
@@ -2897,10 +2897,10 @@
         <v>3.05</v>
       </c>
       <c r="AA17" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="AB17" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="AC17" t="n">
         <v>17.5</v>
@@ -2912,13 +2912,13 @@
         <v>18</v>
       </c>
       <c r="AF17" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AG17" t="n">
         <v>55</v>
       </c>
       <c r="AH17" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AI17" t="n">
         <v>8.5</v>
@@ -2945,13 +2945,13 @@
         <v>8</v>
       </c>
       <c r="AQ17" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AR17" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AS17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18">
@@ -2986,22 +2986,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H18" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J18" t="n">
-        <v>2.72</v>
+        <v>2.62</v>
       </c>
       <c r="K18" t="n">
         <v>2.1</v>
       </c>
       <c r="L18" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
@@ -3028,31 +3028,31 @@
         <v>1.25</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Z18" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="AA18" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="AB18" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AC18" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AE18" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AF18" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AG18" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH18" t="n">
         <v>32</v>
@@ -3061,10 +3061,10 @@
         <v>9</v>
       </c>
       <c r="AJ18" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AK18" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AL18" t="n">
         <v>80</v>
@@ -3073,19 +3073,19 @@
         <v>700</v>
       </c>
       <c r="AN18" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AO18" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AP18" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AQ18" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AR18" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AS18" t="n">
         <v>40</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-06.xlsx
@@ -1139,34 +1139,34 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="H5" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="J5" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="K5" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M5" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="N5" t="n">
-        <v>4.9</v>
+        <v>4.65</v>
       </c>
       <c r="O5" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="P5" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
@@ -1179,10 +1179,10 @@
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="X5" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="Y5" t="n">
         <v>1.75</v>
@@ -1191,22 +1191,22 @@
         <v>2.05</v>
       </c>
       <c r="AA5" t="n">
-        <v>2.87</v>
+        <v>2.82</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="AC5" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AD5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="n">
         <v>11</v>
       </c>
       <c r="AF5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG5" t="n">
         <v>21</v>
@@ -1218,32 +1218,32 @@
         <v>5.5</v>
       </c>
       <c r="AJ5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AK5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL5" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AM5" t="inlineStr"/>
       <c r="AN5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AO5" t="n">
         <v>29</v>
       </c>
       <c r="AP5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ5" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AR5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS5" t="n">
         <v>81</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>101</v>
       </c>
     </row>
     <row r="6">
@@ -1419,113 +1419,113 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="H7" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="I7" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="J7" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="K7" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N7" t="n">
-        <v>6.5</v>
+        <v>5.6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="P7" t="n">
-        <v>2.92</v>
+        <v>2.52</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>2.05</v>
+        <v>2.35</v>
       </c>
       <c r="T7" t="n">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="X7" t="n">
-        <v>1.26</v>
+        <v>1.19</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>2.65</v>
+        <v>2.42</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.98</v>
+        <v>2.15</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AC7" t="n">
-        <v>5.7</v>
+        <v>5.2</v>
       </c>
       <c r="AD7" t="n">
         <v>7</v>
       </c>
       <c r="AE7" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AH7" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="AI7" t="n">
-        <v>6.5</v>
+        <v>5.6</v>
       </c>
       <c r="AJ7" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="AK7" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AL7" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AM7" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AN7" t="n">
-        <v>13.5</v>
+        <v>10.75</v>
       </c>
       <c r="AO7" t="n">
         <v>32</v>
       </c>
       <c r="AP7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ7" t="n">
         <v>120</v>
       </c>
       <c r="AR7" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AS7" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
@@ -1560,56 +1560,56 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="I8" t="n">
-        <v>2.52</v>
+        <v>2.85</v>
       </c>
       <c r="J8" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="K8" t="n">
         <v>1.72</v>
       </c>
       <c r="L8" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="M8" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="N8" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="O8" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="P8" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T8" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="X8" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="Z8" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="AA8" t="n">
         <v>2.42</v>
@@ -1618,31 +1618,31 @@
         <v>1.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>6.1</v>
+        <v>5.7</v>
       </c>
       <c r="AD8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE8" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AG8" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AH8" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AI8" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL8" t="n">
         <v>200</v>
@@ -1651,22 +1651,22 @@
         <v>101</v>
       </c>
       <c r="AN8" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="AO8" t="n">
-        <v>10.25</v>
+        <v>12</v>
       </c>
       <c r="AP8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ8" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AR8" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="AS8" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
@@ -1701,113 +1701,113 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H9" t="n">
-        <v>3.85</v>
+        <v>4.15</v>
       </c>
       <c r="I9" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="J9" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="K9" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="L9" t="n">
-        <v>8.25</v>
+        <v>7.4</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>6.5</v>
+        <v>7.7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
       <c r="P9" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
-        <v>2.05</v>
+        <v>1.78</v>
       </c>
       <c r="T9" t="n">
-        <v>1.7</v>
+        <v>1.93</v>
       </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="n">
-        <v>3.5</v>
+        <v>2.85</v>
       </c>
       <c r="X9" t="n">
-        <v>1.26</v>
+        <v>1.37</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="Z9" t="n">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="AA9" t="n">
-        <v>2.32</v>
+        <v>2.02</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="AC9" t="n">
-        <v>5.1</v>
+        <v>6.1</v>
       </c>
       <c r="AD9" t="n">
-        <v>5.5</v>
+        <v>6.1</v>
       </c>
       <c r="AE9" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AF9" t="n">
         <v>8.75</v>
       </c>
       <c r="AG9" t="n">
-        <v>13.5</v>
+        <v>11.75</v>
       </c>
       <c r="AH9" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="AI9" t="n">
-        <v>6.5</v>
+        <v>7.7</v>
       </c>
       <c r="AJ9" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AK9" t="n">
-        <v>25</v>
+        <v>19.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="AM9" t="n">
-        <v>101</v>
+        <v>800</v>
       </c>
       <c r="AN9" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AO9" t="n">
         <v>65</v>
       </c>
       <c r="AP9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ9" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AR9" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="AS9" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
@@ -2128,22 +2128,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="I12" t="n">
         <v>10</v>
       </c>
       <c r="J12" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="K12" t="n">
         <v>2.75</v>
       </c>
       <c r="L12" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="M12" t="n">
         <v>1.02</v>
@@ -2160,10 +2160,10 @@
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T12" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U12" t="n">
         <v>1.78</v>
@@ -2172,10 +2172,10 @@
         <v>2.03</v>
       </c>
       <c r="W12" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="X12" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Y12" t="n">
         <v>1.25</v>
@@ -2184,13 +2184,13 @@
         <v>3.75</v>
       </c>
       <c r="AA12" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AC12" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD12" t="n">
         <v>6.5</v>
@@ -2211,19 +2211,19 @@
         <v>17</v>
       </c>
       <c r="AJ12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL12" t="n">
         <v>67</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AN12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO12" t="n">
         <v>51</v>
@@ -2305,16 +2305,16 @@
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T13" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="U13" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="V13" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="W13" t="n">
         <v>2.38</v>
@@ -2559,72 +2559,72 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I15" t="n">
         <v>4.5</v>
       </c>
       <c r="J15" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K15" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="L15" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M15" t="n">
         <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O15" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P15" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="n">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="T15" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="U15" t="n">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="V15" t="n">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="W15" t="n">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="X15" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Z15" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AB15" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AC15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD15" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE15" t="n">
         <v>8.5</v>
@@ -2633,16 +2633,16 @@
         <v>13</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH15" t="n">
         <v>21</v>
       </c>
       <c r="AI15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ15" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AK15" t="n">
         <v>13</v>
@@ -2651,10 +2651,10 @@
         <v>41</v>
       </c>
       <c r="AM15" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AN15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO15" t="n">
         <v>26</v>
@@ -2666,10 +2666,10 @@
         <v>51</v>
       </c>
       <c r="AR15" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AS15" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
@@ -2845,19 +2845,19 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="H17" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="I17" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="J17" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="K17" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="L17" t="n">
         <v>1.98</v>
@@ -2891,10 +2891,10 @@
         <v>1.45</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="Z17" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="AA17" t="n">
         <v>1.78</v>
@@ -2903,22 +2903,22 @@
         <v>1.93</v>
       </c>
       <c r="AC17" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AD17" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AE17" t="n">
         <v>18</v>
       </c>
       <c r="AF17" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AG17" t="n">
         <v>55</v>
       </c>
       <c r="AH17" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AI17" t="n">
         <v>8.5</v>
@@ -2936,22 +2936,22 @@
         <v>500</v>
       </c>
       <c r="AN17" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AO17" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AP17" t="n">
         <v>8</v>
       </c>
       <c r="AQ17" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AR17" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AS17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18">
@@ -2986,106 +2986,106 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.05</v>
+        <v>1.82</v>
       </c>
       <c r="H18" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I18" t="n">
-        <v>3.25</v>
+        <v>3.85</v>
       </c>
       <c r="J18" t="n">
-        <v>2.62</v>
+        <v>2.4</v>
       </c>
       <c r="K18" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L18" t="n">
-        <v>3.8</v>
+        <v>4.25</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="P18" t="n">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="n">
-        <v>1.98</v>
+        <v>1.82</v>
       </c>
       <c r="T18" t="n">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="n">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="X18" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="Z18" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="AA18" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AB18" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="AC18" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AF18" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AG18" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AI18" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="AJ18" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="AK18" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AM18" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AN18" t="n">
-        <v>9.25</v>
+        <v>11</v>
       </c>
       <c r="AO18" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="AP18" t="n">
-        <v>11.75</v>
+        <v>13</v>
       </c>
       <c r="AQ18" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AR18" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AS18" t="n">
         <v>40</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-06.xlsx
@@ -859,16 +859,16 @@
         <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q3" t="n">
         <v>2.03</v>
@@ -889,10 +889,10 @@
         <v>1.17</v>
       </c>
       <c r="W3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X3" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="Y3" t="n">
         <v>1.67</v>
@@ -990,16 +990,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H4" t="n">
         <v>2.8</v>
       </c>
       <c r="I4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J4" t="n">
         <v>3.5</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.4</v>
       </c>
       <c r="K4" t="n">
         <v>1.8</v>
@@ -1008,10 +1008,10 @@
         <v>4.33</v>
       </c>
       <c r="M4" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
         <v>1.67</v>
@@ -1047,7 +1047,7 @@
         <v>1.73</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AA4" t="n">
         <v>2.38</v>
@@ -1059,13 +1059,13 @@
         <v>5.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE4" t="n">
         <v>11</v>
       </c>
       <c r="AF4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG4" t="n">
         <v>29</v>
@@ -1089,7 +1089,7 @@
         <v>101</v>
       </c>
       <c r="AN4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AO4" t="n">
         <v>15</v>
@@ -1139,16 +1139,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K5" t="n">
         <v>1.83</v>
@@ -1160,44 +1160,44 @@
         <v>1.16</v>
       </c>
       <c r="N5" t="n">
-        <v>4.65</v>
+        <v>4.55</v>
       </c>
       <c r="O5" t="n">
         <v>1.7</v>
       </c>
       <c r="P5" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="T5" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="X5" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="AA5" t="n">
-        <v>2.82</v>
+        <v>2.87</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AC5" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AD5" t="n">
         <v>6</v>
@@ -1228,10 +1228,10 @@
       </c>
       <c r="AM5" t="inlineStr"/>
       <c r="AN5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP5" t="n">
         <v>21</v>
@@ -1419,56 +1419,56 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="H7" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="K7" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L7" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="P7" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="T7" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="X7" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Z7" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="AA7" t="n">
         <v>2.15</v>
@@ -1480,13 +1480,13 @@
         <v>5.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AE7" t="n">
         <v>8.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG7" t="n">
         <v>16</v>
@@ -1495,10 +1495,10 @@
         <v>37</v>
       </c>
       <c r="AI7" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="AJ7" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AK7" t="n">
         <v>20</v>
@@ -1510,22 +1510,22 @@
         <v>900</v>
       </c>
       <c r="AN7" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AO7" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AP7" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AQ7" t="n">
         <v>120</v>
       </c>
       <c r="AR7" t="n">
+        <v>75</v>
+      </c>
+      <c r="AS7" t="n">
         <v>80</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>90</v>
       </c>
     </row>
     <row r="8">
@@ -1563,65 +1563,65 @@
         <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="I8" t="n">
         <v>2.85</v>
       </c>
       <c r="J8" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K8" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="L8" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="M8" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="N8" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="O8" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="P8" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="T8" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="X8" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="AA8" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="AC8" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE8" t="n">
         <v>12.5</v>
@@ -1633,19 +1633,19 @@
         <v>40</v>
       </c>
       <c r="AH8" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AI8" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="AJ8" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AK8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL8" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AM8" t="n">
         <v>101</v>
@@ -1657,7 +1657,7 @@
         <v>12</v>
       </c>
       <c r="AP8" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AQ8" t="n">
         <v>37</v>
@@ -1666,7 +1666,7 @@
         <v>37</v>
       </c>
       <c r="AS8" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9">
@@ -1701,104 +1701,104 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="H9" t="n">
         <v>4.15</v>
       </c>
       <c r="I9" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="J9" t="n">
         <v>1.91</v>
       </c>
       <c r="K9" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L9" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="M9" t="n">
         <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="O9" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="P9" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="T9" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Z9" t="n">
         <v>2.85</v>
       </c>
-      <c r="X9" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>2.75</v>
-      </c>
       <c r="AA9" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="AC9" t="n">
-        <v>6.1</v>
+        <v>6.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AG9" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AH9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI9" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="AJ9" t="n">
         <v>8.25</v>
       </c>
       <c r="AK9" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AL9" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AM9" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="AN9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO9" t="n">
         <v>65</v>
       </c>
       <c r="AP9" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AQ9" t="n">
         <v>250</v>
@@ -1807,7 +1807,7 @@
         <v>100</v>
       </c>
       <c r="AS9" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
@@ -1842,13 +1842,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.91</v>
+        <v>1.82</v>
       </c>
       <c r="H10" t="n">
         <v>3.6</v>
       </c>
       <c r="I10" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J10" t="n">
         <v>2.5</v>
@@ -1866,30 +1866,30 @@
         <v>17</v>
       </c>
       <c r="O10" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P10" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T10" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="U10" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V10" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W10" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="X10" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="Y10" t="n">
         <v>1.29</v>
@@ -1898,25 +1898,25 @@
         <v>3.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AB10" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AC10" t="n">
         <v>11</v>
       </c>
       <c r="AD10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE10" t="n">
         <v>9</v>
       </c>
       <c r="AF10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH10" t="n">
         <v>21</v>
@@ -1949,7 +1949,7 @@
         <v>41</v>
       </c>
       <c r="AR10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AS10" t="n">
         <v>26</v>
@@ -2160,10 +2160,10 @@
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T12" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U12" t="n">
         <v>1.78</v>
@@ -2220,7 +2220,7 @@
         <v>67</v>
       </c>
       <c r="AM12" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
         <v>29</v>
@@ -2305,16 +2305,16 @@
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T13" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="U13" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="V13" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="W13" t="n">
         <v>2.38</v>
@@ -2418,19 +2418,19 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I14" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="J14" t="n">
         <v>5.5</v>
       </c>
       <c r="K14" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L14" t="n">
         <v>2.1</v>
@@ -2524,7 +2524,7 @@
         <v>13</v>
       </c>
       <c r="AS14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
@@ -2577,30 +2577,30 @@
         <v>4.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O15" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P15" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T15" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="U15" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="V15" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="W15" t="n">
         <v>2.25</v>
@@ -2704,13 +2704,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="H16" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I16" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="J16" t="n">
         <v>4</v>
@@ -2719,13 +2719,13 @@
         <v>2.2</v>
       </c>
       <c r="L16" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
         <v>1.25</v>
@@ -2736,10 +2736,10 @@
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="T16" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
@@ -2762,28 +2762,28 @@
         <v>2.1</v>
       </c>
       <c r="AC16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD16" t="n">
         <v>19</v>
       </c>
       <c r="AE16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF16" t="n">
         <v>41</v>
       </c>
       <c r="AG16" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AH16" t="n">
         <v>34</v>
       </c>
       <c r="AI16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ16" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AK16" t="n">
         <v>13</v>
@@ -2792,7 +2792,7 @@
         <v>41</v>
       </c>
       <c r="AM16" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AN16" t="n">
         <v>8.5</v>
@@ -2804,7 +2804,7 @@
         <v>9</v>
       </c>
       <c r="AQ16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AR16" t="n">
         <v>15</v>
@@ -2845,34 +2845,34 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="H17" t="n">
-        <v>4.2</v>
+        <v>4.05</v>
       </c>
       <c r="I17" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="J17" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="K17" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="L17" t="n">
-        <v>1.98</v>
+        <v>2.07</v>
       </c>
       <c r="M17" t="n">
         <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="O17" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P17" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
@@ -2880,75 +2880,75 @@
         <v>1.65</v>
       </c>
       <c r="T17" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="X17" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="Z17" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="AA17" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="AB17" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="AC17" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AE17" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AF17" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AG17" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AH17" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AI17" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AJ17" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AK17" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AL17" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM17" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AN17" t="n">
         <v>7.7</v>
       </c>
       <c r="AO17" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="AP17" t="n">
         <v>8</v>
       </c>
       <c r="AQ17" t="n">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
       <c r="AR17" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AS17" t="n">
         <v>23</v>
@@ -2992,7 +2992,7 @@
         <v>3.6</v>
       </c>
       <c r="I18" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="J18" t="n">
         <v>2.4</v>
@@ -3001,7 +3001,7 @@
         <v>2.15</v>
       </c>
       <c r="L18" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
@@ -3014,7 +3014,7 @@
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="T18" t="n">
         <v>1.78</v>
@@ -3022,10 +3022,10 @@
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="X18" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="Y18" t="n">
         <v>1.38</v>
@@ -3034,22 +3034,22 @@
         <v>2.6</v>
       </c>
       <c r="AA18" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="AB18" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AD18" t="n">
         <v>8.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AF18" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG18" t="n">
         <v>14.5</v>
@@ -3058,16 +3058,16 @@
         <v>27</v>
       </c>
       <c r="AI18" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AJ18" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AK18" t="n">
         <v>15.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AM18" t="n">
         <v>600</v>
@@ -3076,7 +3076,7 @@
         <v>11</v>
       </c>
       <c r="AO18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP18" t="n">
         <v>13</v>
@@ -3088,7 +3088,7 @@
         <v>35</v>
       </c>
       <c r="AS18" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-02-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-06.xlsx
@@ -841,13 +841,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H3" t="n">
         <v>2.88</v>
       </c>
       <c r="I3" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J3" t="n">
         <v>3.4</v>
@@ -856,16 +856,16 @@
         <v>1.83</v>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M3" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
         <v>5.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="P3" t="n">
         <v>2.25</v>
@@ -892,7 +892,7 @@
         <v>6</v>
       </c>
       <c r="X3" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="Y3" t="n">
         <v>1.67</v>
@@ -949,7 +949,7 @@
         <v>13</v>
       </c>
       <c r="AQ3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR3" t="n">
         <v>34</v>
@@ -1008,13 +1008,13 @@
         <v>4.33</v>
       </c>
       <c r="M4" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="N4" t="n">
         <v>5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="P4" t="n">
         <v>2.1</v>
@@ -1041,13 +1041,13 @@
         <v>7</v>
       </c>
       <c r="X4" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="Y4" t="n">
         <v>1.73</v>
       </c>
       <c r="Z4" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AA4" t="n">
         <v>2.38</v>
@@ -1419,56 +1419,56 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="H7" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I7" t="n">
         <v>5.5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="K7" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L7" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N7" t="n">
         <v>5.7</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N7" t="n">
-        <v>5.8</v>
       </c>
       <c r="O7" t="n">
         <v>1.45</v>
       </c>
       <c r="P7" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="T7" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="X7" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="AA7" t="n">
         <v>2.15</v>
@@ -1477,7 +1477,7 @@
         <v>1.62</v>
       </c>
       <c r="AC7" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AD7" t="n">
         <v>6.9</v>
@@ -1495,7 +1495,7 @@
         <v>37</v>
       </c>
       <c r="AI7" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AJ7" t="n">
         <v>6.4</v>
@@ -1563,44 +1563,44 @@
         <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="I8" t="n">
         <v>2.85</v>
       </c>
       <c r="J8" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="K8" t="n">
         <v>1.75</v>
       </c>
       <c r="L8" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="M8" t="n">
         <v>1.18</v>
       </c>
       <c r="N8" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="O8" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="P8" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T8" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="X8" t="n">
         <v>1.1</v>
@@ -1612,31 +1612,31 @@
         <v>2.02</v>
       </c>
       <c r="AA8" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="AC8" t="n">
         <v>5.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE8" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AF8" t="n">
         <v>40</v>
       </c>
       <c r="AG8" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AH8" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AI8" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="AJ8" t="n">
         <v>5.4</v>
@@ -1651,10 +1651,10 @@
         <v>101</v>
       </c>
       <c r="AN8" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AO8" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AP8" t="n">
         <v>11.75</v>
@@ -1704,110 +1704,110 @@
         <v>1.39</v>
       </c>
       <c r="H9" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="I9" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="J9" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="K9" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="L9" t="n">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>8</v>
+        <v>7.3</v>
       </c>
       <c r="O9" t="n">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="P9" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
-        <v>1.72</v>
+        <v>1.85</v>
       </c>
       <c r="T9" t="n">
-        <v>2.02</v>
+        <v>1.85</v>
       </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Z9" t="n">
         <v>2.67</v>
       </c>
-      <c r="X9" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>2.85</v>
-      </c>
       <c r="AA9" t="n">
-        <v>1.93</v>
+        <v>2.12</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="AC9" t="n">
-        <v>6.6</v>
+        <v>5.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.5</v>
+        <v>5.9</v>
       </c>
       <c r="AE9" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AF9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="AH9" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AI9" t="n">
-        <v>8</v>
+        <v>7.3</v>
       </c>
       <c r="AJ9" t="n">
         <v>8.25</v>
       </c>
       <c r="AK9" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AL9" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AM9" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="AN9" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AO9" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AP9" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AQ9" t="n">
         <v>250</v>
       </c>
       <c r="AR9" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AS9" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
@@ -1842,10 +1842,10 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="H10" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I10" t="n">
         <v>3.4</v>
@@ -1874,10 +1874,10 @@
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T10" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="U10" t="n">
         <v>1.8</v>
@@ -1898,34 +1898,34 @@
         <v>3.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AC10" t="n">
         <v>11</v>
       </c>
       <c r="AD10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE10" t="n">
         <v>9</v>
       </c>
       <c r="AF10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG10" t="n">
         <v>13</v>
       </c>
       <c r="AH10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ10" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AK10" t="n">
         <v>12</v>
@@ -1949,7 +1949,7 @@
         <v>41</v>
       </c>
       <c r="AR10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AS10" t="n">
         <v>26</v>
@@ -2128,28 +2128,28 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="H12" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="I12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J12" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="K12" t="n">
         <v>2.75</v>
       </c>
       <c r="L12" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="O12" t="n">
         <v>1.14</v>
@@ -2184,10 +2184,10 @@
         <v>3.75</v>
       </c>
       <c r="AA12" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AC12" t="n">
         <v>8.5</v>
@@ -2196,10 +2196,10 @@
         <v>6.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF12" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG12" t="n">
         <v>11</v>
@@ -2214,10 +2214,10 @@
         <v>13</v>
       </c>
       <c r="AK12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL12" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AM12" t="n">
         <v>1000</v>
@@ -2229,16 +2229,16 @@
         <v>51</v>
       </c>
       <c r="AP12" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ12" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AR12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS12" t="n">
         <v>67</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="13">
@@ -2305,22 +2305,22 @@
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="X13" t="n">
         <v>1.57</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="W13" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="X13" t="n">
-        <v>1.53</v>
       </c>
       <c r="Y13" t="n">
         <v>1.29</v>
@@ -2450,10 +2450,10 @@
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T14" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
@@ -2506,7 +2506,7 @@
         <v>51</v>
       </c>
       <c r="AM14" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AN14" t="n">
         <v>7</v>
@@ -2559,28 +2559,28 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="H15" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I15" t="n">
         <v>4.2</v>
       </c>
-      <c r="I15" t="n">
-        <v>4.5</v>
-      </c>
       <c r="J15" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K15" t="n">
         <v>2.5</v>
       </c>
       <c r="L15" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M15" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O15" t="n">
         <v>1.14</v>
@@ -2597,16 +2597,16 @@
         <v>2.5</v>
       </c>
       <c r="U15" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V15" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="W15" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="X15" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Y15" t="n">
         <v>1.29</v>
@@ -2615,43 +2615,43 @@
         <v>3.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AB15" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AC15" t="n">
         <v>10</v>
       </c>
       <c r="AD15" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE15" t="n">
         <v>8.5</v>
       </c>
       <c r="AF15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG15" t="n">
         <v>12</v>
       </c>
       <c r="AH15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI15" t="n">
         <v>17</v>
       </c>
       <c r="AJ15" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AK15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL15" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM15" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AN15" t="n">
         <v>17</v>
@@ -2663,7 +2663,7 @@
         <v>15</v>
       </c>
       <c r="AQ15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR15" t="n">
         <v>29</v>
@@ -2704,28 +2704,28 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H16" t="n">
         <v>3.5</v>
       </c>
       <c r="I16" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K16" t="n">
         <v>2.2</v>
       </c>
       <c r="L16" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M16" t="n">
         <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O16" t="n">
         <v>1.25</v>
@@ -2762,7 +2762,7 @@
         <v>2.1</v>
       </c>
       <c r="AC16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD16" t="n">
         <v>19</v>
@@ -2771,16 +2771,16 @@
         <v>12</v>
       </c>
       <c r="AF16" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG16" t="n">
         <v>26</v>
       </c>
       <c r="AH16" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ16" t="n">
         <v>6.5</v>
@@ -2792,13 +2792,13 @@
         <v>41</v>
       </c>
       <c r="AM16" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AN16" t="n">
         <v>8.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP16" t="n">
         <v>9</v>
@@ -2807,7 +2807,7 @@
         <v>19</v>
       </c>
       <c r="AR16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AS16" t="n">
         <v>23</v>
@@ -2845,19 +2845,19 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="H17" t="n">
-        <v>4.05</v>
+        <v>4.15</v>
       </c>
       <c r="I17" t="n">
         <v>1.55</v>
       </c>
       <c r="J17" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="K17" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="L17" t="n">
         <v>2.07</v>
@@ -2866,13 +2866,13 @@
         <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="O17" t="n">
         <v>1.22</v>
       </c>
       <c r="P17" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
@@ -2885,10 +2885,10 @@
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="X17" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Y17" t="n">
         <v>1.33</v>
@@ -2903,7 +2903,7 @@
         <v>1.98</v>
       </c>
       <c r="AC17" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AD17" t="n">
         <v>32</v>
@@ -2912,22 +2912,22 @@
         <v>16.5</v>
       </c>
       <c r="AF17" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AG17" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AH17" t="n">
         <v>45</v>
       </c>
       <c r="AI17" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AJ17" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AK17" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AL17" t="n">
         <v>65</v>
@@ -2936,7 +2936,7 @@
         <v>450</v>
       </c>
       <c r="AN17" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AO17" t="n">
         <v>7.8</v>
@@ -2986,46 +2986,46 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.82</v>
+        <v>1.65</v>
       </c>
       <c r="H18" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="I18" t="n">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="J18" t="n">
-        <v>2.4</v>
+        <v>2.22</v>
       </c>
       <c r="K18" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L18" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P18" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T18" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="n">
-        <v>2.92</v>
+        <v>2.87</v>
       </c>
       <c r="X18" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="Y18" t="n">
         <v>1.38</v>
@@ -3034,61 +3034,61 @@
         <v>2.6</v>
       </c>
       <c r="AA18" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="AB18" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>8.5</v>
+        <v>7.6</v>
       </c>
       <c r="AE18" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AF18" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH18" t="n">
         <v>27</v>
       </c>
       <c r="AI18" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AJ18" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AK18" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AL18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>700</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>25</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ18" t="n">
         <v>75</v>
       </c>
-      <c r="AM18" t="n">
-        <v>600</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>20</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>55</v>
-      </c>
       <c r="AR18" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AS18" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-02-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-06.xlsx
@@ -859,13 +859,13 @@
         <v>4.33</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N3" t="n">
         <v>5.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="P3" t="n">
         <v>2.25</v>
@@ -877,10 +877,10 @@
         <v>1.83</v>
       </c>
       <c r="S3" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="T3" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="U3" t="n">
         <v>5.2</v>
@@ -892,7 +892,7 @@
         <v>6</v>
       </c>
       <c r="X3" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="Y3" t="n">
         <v>1.67</v>
@@ -990,16 +990,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H4" t="n">
         <v>2.8</v>
       </c>
       <c r="I4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J4" t="n">
         <v>3.4</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.5</v>
       </c>
       <c r="K4" t="n">
         <v>1.8</v>
@@ -1008,40 +1008,40 @@
         <v>4.33</v>
       </c>
       <c r="M4" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="N4" t="n">
         <v>5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="P4" t="n">
         <v>2.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="R4" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="S4" t="n">
         <v>3.4</v>
       </c>
       <c r="T4" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U4" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="V4" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="W4" t="n">
         <v>7</v>
       </c>
       <c r="X4" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="Y4" t="n">
         <v>1.73</v>
@@ -1050,22 +1050,22 @@
         <v>2.08</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AC4" t="n">
         <v>5.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE4" t="n">
         <v>11</v>
       </c>
       <c r="AF4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG4" t="n">
         <v>29</v>
@@ -1089,7 +1089,7 @@
         <v>101</v>
       </c>
       <c r="AN4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AO4" t="n">
         <v>15</v>
@@ -1163,7 +1163,7 @@
         <v>4.55</v>
       </c>
       <c r="O5" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="P5" t="n">
         <v>2.02</v>
@@ -1419,22 +1419,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="H7" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.27</v>
+        <v>2.42</v>
       </c>
       <c r="K7" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="L7" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="M7" t="n">
         <v>1.11</v>
@@ -1443,23 +1443,23 @@
         <v>5.7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="P7" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="T7" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="X7" t="n">
         <v>1.19</v>
@@ -1468,7 +1468,7 @@
         <v>1.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="AA7" t="n">
         <v>2.15</v>
@@ -1480,28 +1480,28 @@
         <v>5.1</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AE7" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AF7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AI7" t="n">
         <v>5.7</v>
       </c>
       <c r="AJ7" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AK7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL7" t="n">
         <v>120</v>
@@ -1510,22 +1510,22 @@
         <v>900</v>
       </c>
       <c r="AN7" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AP7" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AQ7" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AR7" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AS7" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
@@ -1563,68 +1563,68 @@
         <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="I8" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="J8" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K8" t="n">
         <v>1.75</v>
       </c>
       <c r="L8" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="M8" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="N8" t="n">
-        <v>4.3</v>
+        <v>4.45</v>
       </c>
       <c r="O8" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="P8" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="T8" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="X8" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="Z8" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="AA8" t="n">
-        <v>2.35</v>
+        <v>2.27</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="AC8" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="AD8" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AF8" t="n">
         <v>40</v>
@@ -1633,40 +1633,40 @@
         <v>37</v>
       </c>
       <c r="AH8" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AI8" t="n">
-        <v>4.3</v>
+        <v>4.45</v>
       </c>
       <c r="AJ8" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AK8" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AM8" t="n">
         <v>101</v>
       </c>
       <c r="AN8" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AO8" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AP8" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AQ8" t="n">
         <v>37</v>
       </c>
       <c r="AR8" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AS8" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
@@ -1701,68 +1701,68 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="H9" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I9" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="J9" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="K9" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="L9" t="n">
         <v>7.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>7.3</v>
+        <v>7.8</v>
       </c>
       <c r="O9" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P9" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T9" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="n">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="X9" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="Z9" t="n">
-        <v>2.67</v>
+        <v>2.82</v>
       </c>
       <c r="AA9" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AC9" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="AE9" t="n">
         <v>8.25</v>
@@ -1771,31 +1771,31 @@
         <v>8.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AI9" t="n">
-        <v>7.3</v>
+        <v>7.8</v>
       </c>
       <c r="AJ9" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL9" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AM9" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AN9" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AO9" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AP9" t="n">
         <v>26</v>
@@ -1807,7 +1807,7 @@
         <v>110</v>
       </c>
       <c r="AS9" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
@@ -1842,22 +1842,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="H10" t="n">
         <v>3.7</v>
       </c>
       <c r="I10" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="J10" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="K10" t="n">
         <v>2.4</v>
       </c>
       <c r="L10" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="M10" t="n">
         <v>1.03</v>
@@ -1866,30 +1866,30 @@
         <v>17</v>
       </c>
       <c r="O10" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P10" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T10" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="U10" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V10" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W10" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="X10" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Y10" t="n">
         <v>1.29</v>
@@ -1898,61 +1898,61 @@
         <v>3.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AB10" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AC10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD10" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AG10" t="n">
         <v>13</v>
       </c>
       <c r="AH10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM10" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AN10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ10" t="n">
         <v>41</v>
       </c>
       <c r="AR10" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AS10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11">
@@ -2128,22 +2128,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="H12" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="I12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J12" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="K12" t="n">
         <v>2.75</v>
       </c>
       <c r="L12" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="M12" t="n">
         <v>1.01</v>
@@ -2160,10 +2160,10 @@
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T12" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U12" t="n">
         <v>1.78</v>
@@ -2184,10 +2184,10 @@
         <v>3.75</v>
       </c>
       <c r="AA12" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="AC12" t="n">
         <v>8.5</v>
@@ -2196,10 +2196,10 @@
         <v>6.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF12" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG12" t="n">
         <v>11</v>
@@ -2214,10 +2214,10 @@
         <v>13</v>
       </c>
       <c r="AK12" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL12" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AM12" t="n">
         <v>1000</v>
@@ -2229,16 +2229,16 @@
         <v>51</v>
       </c>
       <c r="AP12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ12" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AR12" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS12" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13">
@@ -2273,19 +2273,19 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H13" t="n">
         <v>4.2</v>
       </c>
       <c r="I13" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J13" t="n">
         <v>2.2</v>
       </c>
       <c r="K13" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L13" t="n">
         <v>4.33</v>
@@ -2305,22 +2305,22 @@
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="W13" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="X13" t="n">
         <v>1.53</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W13" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="X13" t="n">
-        <v>1.57</v>
       </c>
       <c r="Y13" t="n">
         <v>1.29</v>
@@ -2329,7 +2329,7 @@
         <v>3.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="AB13" t="n">
         <v>2.2</v>
@@ -2368,13 +2368,13 @@
         <v>151</v>
       </c>
       <c r="AN13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ13" t="n">
         <v>41</v>
@@ -2383,7 +2383,7 @@
         <v>29</v>
       </c>
       <c r="AS13" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
@@ -2418,16 +2418,16 @@
         </is>
       </c>
       <c r="G14" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="J14" t="n">
         <v>5</v>
-      </c>
-      <c r="H14" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="J14" t="n">
-        <v>5.5</v>
       </c>
       <c r="K14" t="n">
         <v>2.25</v>
@@ -2470,7 +2470,7 @@
         <v>3</v>
       </c>
       <c r="AA14" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AB14" t="n">
         <v>1.8</v>
@@ -2494,19 +2494,19 @@
         <v>41</v>
       </c>
       <c r="AI14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ14" t="n">
         <v>8</v>
       </c>
       <c r="AK14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL14" t="n">
         <v>51</v>
       </c>
       <c r="AM14" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AN14" t="n">
         <v>7</v>
@@ -2518,7 +2518,7 @@
         <v>8.5</v>
       </c>
       <c r="AQ14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR14" t="n">
         <v>13</v>
@@ -2577,13 +2577,13 @@
         <v>4.33</v>
       </c>
       <c r="M15" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O15" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="P15" t="n">
         <v>5.5</v>
@@ -2597,34 +2597,34 @@
         <v>2.5</v>
       </c>
       <c r="U15" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V15" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="W15" t="n">
         <v>2.2</v>
       </c>
       <c r="X15" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Z15" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AA15" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE15" t="n">
         <v>8.5</v>
@@ -2639,7 +2639,7 @@
         <v>19</v>
       </c>
       <c r="AI15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ15" t="n">
         <v>8</v>
@@ -2725,7 +2725,7 @@
         <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
         <v>1.25</v>
@@ -2756,7 +2756,7 @@
         <v>3</v>
       </c>
       <c r="AA16" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AB16" t="n">
         <v>2.1</v>
@@ -2986,46 +2986,46 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.65</v>
+        <v>1.42</v>
       </c>
       <c r="H18" t="n">
-        <v>3.8</v>
+        <v>4.25</v>
       </c>
       <c r="I18" t="n">
-        <v>4.5</v>
+        <v>6.8</v>
       </c>
       <c r="J18" t="n">
-        <v>2.22</v>
+        <v>1.91</v>
       </c>
       <c r="K18" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="L18" t="n">
-        <v>4.7</v>
+        <v>6.4</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P18" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="T18" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="n">
-        <v>2.87</v>
+        <v>2.82</v>
       </c>
       <c r="X18" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="Y18" t="n">
         <v>1.38</v>
@@ -3034,61 +3034,61 @@
         <v>2.6</v>
       </c>
       <c r="AA18" t="n">
-        <v>1.82</v>
+        <v>2.02</v>
       </c>
       <c r="AB18" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="AC18" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>7.6</v>
+        <v>6.1</v>
       </c>
       <c r="AE18" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AF18" t="n">
-        <v>12.5</v>
+        <v>8.75</v>
       </c>
       <c r="AG18" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AH18" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AI18" t="n">
         <v>10.5</v>
       </c>
       <c r="AJ18" t="n">
-        <v>7.4</v>
+        <v>8.5</v>
       </c>
       <c r="AK18" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AL18" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>900</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>45</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>22</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>150</v>
+      </c>
+      <c r="AR18" t="n">
         <v>80</v>
       </c>
-      <c r="AM18" t="n">
-        <v>700</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>25</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>75</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>45</v>
-      </c>
       <c r="AS18" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-02-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-06.xlsx
@@ -841,22 +841,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="H3" t="n">
         <v>2.88</v>
       </c>
       <c r="I3" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K3" t="n">
         <v>1.83</v>
       </c>
       <c r="L3" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
         <v>1.14</v>
@@ -865,10 +865,10 @@
         <v>5.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q3" t="n">
         <v>2.03</v>
@@ -877,10 +877,10 @@
         <v>1.83</v>
       </c>
       <c r="S3" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="T3" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="U3" t="n">
         <v>5.2</v>
@@ -889,10 +889,10 @@
         <v>1.17</v>
       </c>
       <c r="W3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X3" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="Y3" t="n">
         <v>1.67</v>
@@ -916,7 +916,7 @@
         <v>11</v>
       </c>
       <c r="AF3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG3" t="n">
         <v>26</v>
@@ -943,13 +943,13 @@
         <v>7</v>
       </c>
       <c r="AO3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP3" t="n">
         <v>13</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR3" t="n">
         <v>34</v>
@@ -990,16 +990,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H4" t="n">
         <v>2.8</v>
       </c>
       <c r="I4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J4" t="n">
         <v>3.5</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.4</v>
       </c>
       <c r="K4" t="n">
         <v>1.8</v>
@@ -1029,7 +1029,7 @@
         <v>3.4</v>
       </c>
       <c r="T4" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U4" t="n">
         <v>5.8</v>
@@ -1050,22 +1050,22 @@
         <v>2.08</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AC4" t="n">
         <v>5.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE4" t="n">
         <v>11</v>
       </c>
       <c r="AF4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG4" t="n">
         <v>29</v>
@@ -1089,7 +1089,7 @@
         <v>101</v>
       </c>
       <c r="AN4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AO4" t="n">
         <v>15</v>
@@ -1139,7 +1139,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="H5" t="n">
         <v>3.4</v>
@@ -1154,7 +1154,7 @@
         <v>1.83</v>
       </c>
       <c r="L5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="M5" t="n">
         <v>1.16</v>
@@ -1197,7 +1197,7 @@
         <v>1.36</v>
       </c>
       <c r="AC5" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AD5" t="n">
         <v>6</v>
@@ -1206,7 +1206,7 @@
         <v>11</v>
       </c>
       <c r="AF5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG5" t="n">
         <v>21</v>
@@ -1218,7 +1218,7 @@
         <v>5.5</v>
       </c>
       <c r="AJ5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AK5" t="n">
         <v>34</v>
@@ -1237,7 +1237,7 @@
         <v>21</v>
       </c>
       <c r="AQ5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR5" t="n">
         <v>67</v>
@@ -1701,56 +1701,56 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="H9" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I9" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="J9" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="K9" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="L9" t="n">
-        <v>7.5</v>
+        <v>6.9</v>
       </c>
       <c r="M9" t="n">
         <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="O9" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="P9" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T9" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="X9" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="Z9" t="n">
-        <v>2.82</v>
+        <v>2.77</v>
       </c>
       <c r="AA9" t="n">
         <v>2.02</v>
@@ -1762,28 +1762,28 @@
         <v>6.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AE9" t="n">
         <v>8.25</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG9" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI9" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AJ9" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AK9" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AL9" t="n">
         <v>100</v>
@@ -1792,22 +1792,22 @@
         <v>800</v>
       </c>
       <c r="AN9" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>55</v>
+      </c>
+      <c r="AP9" t="n">
         <v>23</v>
       </c>
-      <c r="AO9" t="n">
-        <v>65</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ9" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AR9" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AS9" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10">
@@ -2128,34 +2128,34 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="H12" t="n">
-        <v>6.25</v>
+        <v>7</v>
       </c>
       <c r="I12" t="n">
+        <v>12</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="L12" t="n">
         <v>10</v>
       </c>
-      <c r="J12" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="L12" t="n">
-        <v>9</v>
-      </c>
       <c r="M12" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N12" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="O12" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P12" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
@@ -2178,67 +2178,67 @@
         <v>1.67</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Z12" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AA12" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AD12" t="n">
         <v>6.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF12" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG12" t="n">
         <v>11</v>
       </c>
       <c r="AH12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK12" t="n">
         <v>29</v>
       </c>
-      <c r="AI12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>26</v>
-      </c>
       <c r="AL12" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AN12" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO12" t="n">
         <v>51</v>
       </c>
       <c r="AP12" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ12" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AR12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS12" t="n">
         <v>67</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="13">
@@ -2291,10 +2291,10 @@
         <v>4.33</v>
       </c>
       <c r="M13" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="O13" t="n">
         <v>1.17</v>
@@ -2311,10 +2311,10 @@
         <v>2.35</v>
       </c>
       <c r="U13" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="V13" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="W13" t="n">
         <v>2.38</v>
@@ -2329,7 +2329,7 @@
         <v>3.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="AB13" t="n">
         <v>2.2</v>
@@ -2344,7 +2344,7 @@
         <v>8.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG13" t="n">
         <v>13</v>
@@ -2418,22 +2418,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="I14" t="n">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="J14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K14" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L14" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="M14" t="n">
         <v>1.04</v>
@@ -2442,26 +2442,26 @@
         <v>9</v>
       </c>
       <c r="O14" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P14" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T14" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="X14" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Y14" t="n">
         <v>1.36</v>
@@ -2470,22 +2470,22 @@
         <v>3</v>
       </c>
       <c r="AA14" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AB14" t="n">
         <v>1.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF14" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG14" t="n">
         <v>41</v>
@@ -2497,28 +2497,28 @@
         <v>12</v>
       </c>
       <c r="AJ14" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL14" t="n">
         <v>51</v>
       </c>
       <c r="AM14" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AN14" t="n">
         <v>7</v>
       </c>
       <c r="AO14" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP14" t="n">
         <v>8.5</v>
       </c>
       <c r="AQ14" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AR14" t="n">
         <v>13</v>
@@ -2577,13 +2577,13 @@
         <v>4.33</v>
       </c>
       <c r="M15" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O15" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="P15" t="n">
         <v>5.5</v>
@@ -2597,34 +2597,34 @@
         <v>2.5</v>
       </c>
       <c r="U15" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V15" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="W15" t="n">
         <v>2.2</v>
       </c>
       <c r="X15" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Z15" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AB15" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AC15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE15" t="n">
         <v>8.5</v>
@@ -2639,7 +2639,7 @@
         <v>19</v>
       </c>
       <c r="AI15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ15" t="n">
         <v>8</v>
@@ -2728,26 +2728,26 @@
         <v>13</v>
       </c>
       <c r="O16" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P16" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T16" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="X16" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Y16" t="n">
         <v>1.36</v>
@@ -2756,7 +2756,7 @@
         <v>3</v>
       </c>
       <c r="AA16" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="AB16" t="n">
         <v>2.1</v>
@@ -2848,19 +2848,19 @@
         <v>5.2</v>
       </c>
       <c r="H17" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="I17" t="n">
         <v>1.55</v>
       </c>
       <c r="J17" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="K17" t="n">
         <v>2.35</v>
       </c>
       <c r="L17" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="M17" t="n">
         <v>1.04</v>
@@ -2872,7 +2872,7 @@
         <v>1.22</v>
       </c>
       <c r="P17" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
@@ -2891,10 +2891,10 @@
         <v>1.45</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="Z17" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="AA17" t="n">
         <v>1.75</v>
@@ -2903,7 +2903,7 @@
         <v>1.98</v>
       </c>
       <c r="AC17" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AD17" t="n">
         <v>32</v>
@@ -2915,10 +2915,10 @@
         <v>90</v>
       </c>
       <c r="AG17" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AH17" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AI17" t="n">
         <v>8.5</v>
@@ -2939,7 +2939,7 @@
         <v>7.8</v>
       </c>
       <c r="AO17" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AP17" t="n">
         <v>8</v>
@@ -2986,46 +2986,46 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="H18" t="n">
-        <v>4.25</v>
+        <v>4.4</v>
       </c>
       <c r="I18" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="J18" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="K18" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="L18" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P18" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="T18" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="n">
-        <v>2.82</v>
+        <v>2.72</v>
       </c>
       <c r="X18" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="Y18" t="n">
         <v>1.38</v>
@@ -3040,7 +3040,7 @@
         <v>1.62</v>
       </c>
       <c r="AC18" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AD18" t="n">
         <v>6.1</v>
@@ -3049,7 +3049,7 @@
         <v>8.5</v>
       </c>
       <c r="AF18" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AG18" t="n">
         <v>12</v>
@@ -3058,13 +3058,13 @@
         <v>32</v>
       </c>
       <c r="AI18" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AJ18" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AK18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL18" t="n">
         <v>120</v>
@@ -3073,22 +3073,22 @@
         <v>900</v>
       </c>
       <c r="AN18" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AO18" t="n">
         <v>45</v>
       </c>
       <c r="AP18" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AQ18" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AR18" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AS18" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-02-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-06.xlsx
@@ -841,7 +841,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H3" t="n">
         <v>2.88</v>
@@ -850,7 +850,7 @@
         <v>3.3</v>
       </c>
       <c r="J3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K3" t="n">
         <v>1.83</v>
@@ -865,10 +865,10 @@
         <v>5.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q3" t="n">
         <v>2.03</v>
@@ -889,10 +889,10 @@
         <v>1.17</v>
       </c>
       <c r="W3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X3" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="Y3" t="n">
         <v>1.67</v>
@@ -916,7 +916,7 @@
         <v>11</v>
       </c>
       <c r="AF3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG3" t="n">
         <v>26</v>
@@ -943,7 +943,7 @@
         <v>7</v>
       </c>
       <c r="AO3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP3" t="n">
         <v>13</v>
@@ -1163,7 +1163,7 @@
         <v>4.55</v>
       </c>
       <c r="O5" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="P5" t="n">
         <v>2.02</v>
@@ -1191,10 +1191,10 @@
         <v>2.08</v>
       </c>
       <c r="AA5" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="AC5" t="n">
         <v>4.33</v>
@@ -1701,65 +1701,65 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="H9" t="n">
-        <v>4.1</v>
+        <v>4.35</v>
       </c>
       <c r="I9" t="n">
-        <v>7.8</v>
+        <v>8.75</v>
       </c>
       <c r="J9" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="K9" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="L9" t="n">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="M9" t="n">
         <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="O9" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="P9" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="T9" t="n">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Z9" t="n">
         <v>2.9</v>
       </c>
-      <c r="X9" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>2.77</v>
-      </c>
       <c r="AA9" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="AC9" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="AD9" t="n">
         <v>6.2</v>
@@ -1768,46 +1768,46 @@
         <v>8.25</v>
       </c>
       <c r="AF9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AH9" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AI9" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AJ9" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AK9" t="n">
         <v>19.5</v>
       </c>
       <c r="AL9" t="n">
+        <v>90</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>700</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>65</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>250</v>
+      </c>
+      <c r="AR9" t="n">
         <v>100</v>
       </c>
-      <c r="AM9" t="n">
-        <v>800</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>55</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>200</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>90</v>
-      </c>
       <c r="AS9" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
@@ -2418,7 +2418,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="H14" t="n">
         <v>4.33</v>
@@ -2436,10 +2436,10 @@
         <v>2</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O14" t="n">
         <v>1.22</v>
@@ -2450,10 +2450,10 @@
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="T14" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
@@ -2464,19 +2464,19 @@
         <v>1.4</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Z14" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AA14" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AB14" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AC14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD14" t="n">
         <v>29</v>
@@ -2494,7 +2494,7 @@
         <v>41</v>
       </c>
       <c r="AI14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ14" t="n">
         <v>8.5</v>
@@ -2506,13 +2506,13 @@
         <v>51</v>
       </c>
       <c r="AM14" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AN14" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AP14" t="n">
         <v>8.5</v>
@@ -2521,7 +2521,7 @@
         <v>10</v>
       </c>
       <c r="AR14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS14" t="n">
         <v>26</v>
@@ -2562,10 +2562,10 @@
         <v>1.73</v>
       </c>
       <c r="H15" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J15" t="n">
         <v>2.25</v>
@@ -2583,10 +2583,10 @@
         <v>17</v>
       </c>
       <c r="O15" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P15" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
@@ -2594,37 +2594,37 @@
         <v>1.5</v>
       </c>
       <c r="T15" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W15" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AB15" t="n">
         <v>2.5</v>
       </c>
-      <c r="U15" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V15" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="W15" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="X15" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>2.38</v>
-      </c>
       <c r="AC15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE15" t="n">
         <v>8.5</v>
@@ -2639,7 +2639,7 @@
         <v>19</v>
       </c>
       <c r="AI15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ15" t="n">
         <v>8</v>
@@ -2654,7 +2654,7 @@
         <v>101</v>
       </c>
       <c r="AN15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO15" t="n">
         <v>26</v>
@@ -2704,22 +2704,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="H16" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I16" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K16" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L16" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="M16" t="n">
         <v>1.04</v>
@@ -2736,10 +2736,10 @@
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T16" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
@@ -2771,7 +2771,7 @@
         <v>12</v>
       </c>
       <c r="AF16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG16" t="n">
         <v>26</v>
@@ -2780,10 +2780,10 @@
         <v>29</v>
       </c>
       <c r="AI16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ16" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AK16" t="n">
         <v>13</v>
@@ -2798,16 +2798,16 @@
         <v>8.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP16" t="n">
         <v>9</v>
       </c>
       <c r="AQ16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AS16" t="n">
         <v>23</v>
@@ -2986,46 +2986,46 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="H18" t="n">
-        <v>4.4</v>
+        <v>5.1</v>
       </c>
       <c r="I18" t="n">
-        <v>7.2</v>
+        <v>9.5</v>
       </c>
       <c r="J18" t="n">
-        <v>1.85</v>
+        <v>1.72</v>
       </c>
       <c r="K18" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="L18" t="n">
-        <v>6.6</v>
+        <v>8</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="P18" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="T18" t="n">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="n">
-        <v>2.72</v>
+        <v>2.47</v>
       </c>
       <c r="X18" t="n">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
       <c r="Y18" t="n">
         <v>1.38</v>
@@ -3034,61 +3034,61 @@
         <v>2.6</v>
       </c>
       <c r="AA18" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="AB18" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AC18" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="AD18" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="AE18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF18" t="n">
-        <v>8.5</v>
+        <v>7.3</v>
       </c>
       <c r="AG18" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AH18" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AI18" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AJ18" t="n">
-        <v>8.75</v>
+        <v>10.5</v>
       </c>
       <c r="AK18" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AL18" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AM18" t="n">
         <v>900</v>
       </c>
       <c r="AN18" t="n">
-        <v>17.5</v>
+        <v>23</v>
       </c>
       <c r="AO18" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="AP18" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AQ18" t="n">
-        <v>175</v>
+        <v>300</v>
       </c>
       <c r="AR18" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AS18" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-02-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-06.xlsx
@@ -841,22 +841,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="H3" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I3" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="J3" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K3" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.14</v>
@@ -865,10 +865,10 @@
         <v>5.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="P3" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q3" t="n">
         <v>2.03</v>
@@ -877,40 +877,40 @@
         <v>1.83</v>
       </c>
       <c r="S3" t="n">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="T3" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="U3" t="n">
         <v>5.2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X3" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AA3" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AD3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE3" t="n">
         <v>11</v>
@@ -925,16 +925,16 @@
         <v>41</v>
       </c>
       <c r="AI3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AJ3" t="n">
         <v>6</v>
       </c>
       <c r="AK3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AM3" t="n">
         <v>101</v>
@@ -946,13 +946,13 @@
         <v>15</v>
       </c>
       <c r="AP3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AS3" t="n">
         <v>51</v>
@@ -990,16 +990,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H4" t="n">
         <v>2.8</v>
       </c>
       <c r="I4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J4" t="n">
         <v>3.4</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.5</v>
       </c>
       <c r="K4" t="n">
         <v>1.8</v>
@@ -1044,28 +1044,28 @@
         <v>1.1</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AC4" t="n">
         <v>5.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE4" t="n">
         <v>11</v>
       </c>
       <c r="AF4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG4" t="n">
         <v>29</v>
@@ -1089,7 +1089,7 @@
         <v>101</v>
       </c>
       <c r="AN4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AO4" t="n">
         <v>15</v>
@@ -2562,10 +2562,10 @@
         <v>1.73</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I15" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J15" t="n">
         <v>2.25</v>
@@ -2583,24 +2583,24 @@
         <v>17</v>
       </c>
       <c r="O15" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P15" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T15" t="n">
         <v>2.4</v>
       </c>
       <c r="U15" t="n">
-        <v>1.9</v>
+        <v>1.79</v>
       </c>
       <c r="V15" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="W15" t="n">
         <v>2.25</v>
@@ -2609,22 +2609,22 @@
         <v>1.57</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="Z15" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AB15" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AC15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE15" t="n">
         <v>8.5</v>
@@ -2639,22 +2639,22 @@
         <v>19</v>
       </c>
       <c r="AI15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ15" t="n">
         <v>8</v>
       </c>
       <c r="AK15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM15" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AN15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO15" t="n">
         <v>26</v>
@@ -2704,7 +2704,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H16" t="n">
         <v>3.6</v>
@@ -2719,13 +2719,13 @@
         <v>2.25</v>
       </c>
       <c r="L16" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="M16" t="n">
         <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O16" t="n">
         <v>1.22</v>
@@ -2736,10 +2736,10 @@
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T16" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
@@ -2777,10 +2777,10 @@
         <v>26</v>
       </c>
       <c r="AH16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ16" t="n">
         <v>7</v>
@@ -2986,46 +2986,46 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="H18" t="n">
-        <v>5.1</v>
+        <v>4.75</v>
       </c>
       <c r="I18" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="J18" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="K18" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="L18" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P18" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="T18" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="n">
-        <v>2.47</v>
+        <v>2.55</v>
       </c>
       <c r="X18" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="Y18" t="n">
         <v>1.38</v>
@@ -3034,61 +3034,61 @@
         <v>2.6</v>
       </c>
       <c r="AA18" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="AB18" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="AC18" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AE18" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AF18" t="n">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="AG18" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AI18" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AJ18" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="AK18" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AL18" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AM18" t="n">
         <v>900</v>
       </c>
       <c r="AN18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO18" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AP18" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AQ18" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AR18" t="n">
         <v>120</v>
       </c>
       <c r="AS18" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-02-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-06.xlsx
@@ -990,13 +990,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H4" t="n">
         <v>2.8</v>
       </c>
       <c r="I4" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J4" t="n">
         <v>3.4</v>
@@ -1005,13 +1005,13 @@
         <v>1.8</v>
       </c>
       <c r="L4" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.17</v>
       </c>
       <c r="N4" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="O4" t="n">
         <v>1.67</v>
@@ -1020,10 +1020,10 @@
         <v>2.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="R4" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="S4" t="n">
         <v>3.4</v>
@@ -1032,10 +1032,10 @@
         <v>1.33</v>
       </c>
       <c r="U4" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="V4" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W4" t="n">
         <v>7</v>
@@ -1056,7 +1056,7 @@
         <v>1.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AD4" t="n">
         <v>9.5</v>
@@ -1074,13 +1074,13 @@
         <v>51</v>
       </c>
       <c r="AI4" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AJ4" t="n">
         <v>6</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL4" t="n">
         <v>101</v>
@@ -1139,34 +1139,34 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K5" t="n">
         <v>1.83</v>
       </c>
       <c r="L5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M5" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="N5" t="n">
-        <v>4.55</v>
+        <v>4.45</v>
       </c>
       <c r="O5" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="P5" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
@@ -1179,28 +1179,28 @@
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="X5" t="n">
         <v>1.1</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="AA5" t="n">
-        <v>2.85</v>
+        <v>2.77</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="AC5" t="n">
         <v>4.33</v>
       </c>
       <c r="AD5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE5" t="n">
         <v>11</v>
@@ -1209,13 +1209,13 @@
         <v>13</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH5" t="n">
         <v>51</v>
       </c>
       <c r="AI5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AJ5" t="n">
         <v>7.5</v>
@@ -1228,10 +1228,10 @@
       </c>
       <c r="AM5" t="inlineStr"/>
       <c r="AN5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AO5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP5" t="n">
         <v>21</v>
@@ -1240,7 +1240,7 @@
         <v>67</v>
       </c>
       <c r="AR5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS5" t="n">
         <v>81</v>
@@ -2986,46 +2986,46 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="H18" t="n">
-        <v>4.75</v>
+        <v>5.2</v>
       </c>
       <c r="I18" t="n">
-        <v>8.75</v>
+        <v>10.5</v>
       </c>
       <c r="J18" t="n">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="K18" t="n">
-        <v>2.37</v>
+        <v>2.5</v>
       </c>
       <c r="L18" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P18" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="T18" t="n">
-        <v>1.98</v>
+        <v>2.07</v>
       </c>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="n">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="X18" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="Y18" t="n">
         <v>1.38</v>
@@ -3034,61 +3034,61 @@
         <v>2.6</v>
       </c>
       <c r="AA18" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="AB18" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AC18" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="AE18" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AF18" t="n">
-        <v>7.7</v>
+        <v>7</v>
       </c>
       <c r="AG18" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AH18" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AI18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ18" t="n">
-        <v>9.75</v>
+        <v>11</v>
       </c>
       <c r="AK18" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AL18" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AM18" t="n">
         <v>900</v>
       </c>
       <c r="AN18" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AO18" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AP18" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="AQ18" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="AR18" t="n">
+        <v>150</v>
+      </c>
+      <c r="AS18" t="n">
         <v>120</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-02-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-06.xlsx
@@ -1011,19 +1011,19 @@
         <v>1.17</v>
       </c>
       <c r="N4" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P4" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.43</v>
+        <v>2.44</v>
       </c>
       <c r="R4" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="S4" t="n">
         <v>3.4</v>
@@ -1139,22 +1139,22 @@
         </is>
       </c>
       <c r="G5" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K5" t="n">
         <v>1.8</v>
       </c>
-      <c r="H5" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I5" t="n">
-        <v>5</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1.83</v>
-      </c>
       <c r="L5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M5" t="n">
         <v>1.17</v>
@@ -1179,7 +1179,7 @@
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="X5" t="n">
         <v>1.1</v>
@@ -1191,10 +1191,10 @@
         <v>2.05</v>
       </c>
       <c r="AA5" t="n">
-        <v>2.77</v>
+        <v>2.67</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="AC5" t="n">
         <v>4.33</v>
@@ -1206,7 +1206,7 @@
         <v>11</v>
       </c>
       <c r="AF5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG5" t="n">
         <v>23</v>
@@ -1221,20 +1221,20 @@
         <v>7.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL5" t="n">
         <v>151</v>
       </c>
       <c r="AM5" t="inlineStr"/>
       <c r="AN5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ5" t="n">
         <v>67</v>
@@ -1243,7 +1243,7 @@
         <v>51</v>
       </c>
       <c r="AS5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6">
@@ -2986,22 +2986,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="H18" t="n">
         <v>5.2</v>
       </c>
       <c r="I18" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="J18" t="n">
         <v>1.65</v>
       </c>
       <c r="K18" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="L18" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
@@ -3034,37 +3034,37 @@
         <v>2.6</v>
       </c>
       <c r="AA18" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="AB18" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="AC18" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AD18" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AE18" t="n">
         <v>9.25</v>
       </c>
       <c r="AF18" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AG18" t="n">
         <v>11.25</v>
       </c>
       <c r="AH18" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AI18" t="n">
         <v>13</v>
       </c>
       <c r="AJ18" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AK18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL18" t="n">
         <v>150</v>
@@ -3079,7 +3079,7 @@
         <v>80</v>
       </c>
       <c r="AP18" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AQ18" t="n">
         <v>350</v>
